--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.100000000000007</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>11.1111111111112</v>
+      </c>
       <c r="L12" t="n">
         <v>15.81</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.100000000000007</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-14.28571428571414</v>
+      </c>
       <c r="L13" t="n">
         <v>15.82</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.200000000000006</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>15.82</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.300000000000006</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-11.11111111111102</v>
+      </c>
       <c r="L15" t="n">
         <v>15.81000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>25.00000000000006</v>
+      </c>
       <c r="L16" t="n">
         <v>15.81000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>15.83000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>50.00000000000022</v>
+      </c>
       <c r="L18" t="n">
         <v>15.83000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.500000000000005</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>50</v>
+      </c>
       <c r="L19" t="n">
         <v>15.86000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.600000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>15.87000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.700000000000005</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>15.89000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.700000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>15.91000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K23" t="n">
-        <v>12.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>15.92000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>15.92000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.900000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.666666666666635</v>
+        <v>-20</v>
       </c>
       <c r="L26" t="n">
         <v>15.92000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.900000000000004</v>
       </c>
       <c r="K27" t="n">
-        <v>7.692307692307796</v>
+        <v>-20</v>
       </c>
       <c r="L27" t="n">
         <v>15.91000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>2.000000000000005</v>
       </c>
       <c r="K28" t="n">
-        <v>-16.66666666666674</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L28" t="n">
         <v>15.89</v>
@@ -1711,7 +1733,7 @@
         <v>2.100000000000007</v>
       </c>
       <c r="K29" t="n">
-        <v>9.090909090909207</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L29" t="n">
         <v>15.87</v>
@@ -1760,7 +1782,7 @@
         <v>2.400000000000007</v>
       </c>
       <c r="K30" t="n">
-        <v>-23.07692307692312</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L30" t="n">
         <v>15.83</v>
@@ -1809,7 +1831,7 @@
         <v>2.400000000000007</v>
       </c>
       <c r="K31" t="n">
-        <v>-23.07692307692312</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L31" t="n">
         <v>15.78</v>
@@ -1860,7 +1882,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.666666666666761</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L32" t="n">
         <v>15.75</v>
@@ -1911,7 +1933,7 @@
         <v>2.800000000000006</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.64705882352946</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L33" t="n">
         <v>15.71</v>
@@ -1962,7 +1984,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>-29.41176470588237</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L34" t="n">
         <v>15.66</v>
@@ -2013,7 +2035,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K35" t="n">
-        <v>-29.41176470588237</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L35" t="n">
         <v>15.6</v>
@@ -2064,7 +2086,7 @@
         <v>3.300000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>-15.78947368421058</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L36" t="n">
         <v>15.58</v>
@@ -2115,7 +2137,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>-23.80952380952383</v>
+        <v>-19.99999999999995</v>
       </c>
       <c r="L37" t="n">
         <v>15.54</v>
@@ -2166,7 +2188,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K38" t="n">
-        <v>-23.80952380952383</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L38" t="n">
         <v>15.51</v>
@@ -2217,7 +2239,7 @@
         <v>3.600000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L39" t="n">
         <v>15.46</v>
@@ -2268,7 +2290,7 @@
         <v>3.800000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>-18.18181818181822</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>15.46</v>
@@ -2319,7 +2341,7 @@
         <v>3.900000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>-27.27272727272729</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L41" t="n">
         <v>15.45</v>
@@ -2370,7 +2392,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>-21.73913043478263</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>15.43</v>
@@ -2421,7 +2443,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>-18.18181818181822</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L43" t="n">
         <v>15.43</v>
@@ -2472,7 +2494,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>-18.18181818181822</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>15.44</v>
@@ -2523,7 +2545,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-18.18181818181822</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>15.46</v>
@@ -2574,7 +2596,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.09090909090915</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>15.46</v>
@@ -2625,7 +2647,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.09090909090915</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>15.48</v>
@@ -2676,7 +2698,7 @@
         <v>4.200000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L48" t="n">
         <v>15.51</v>
@@ -2727,7 +2749,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.090909090909165</v>
+        <v>20</v>
       </c>
       <c r="L49" t="n">
         <v>15.54</v>
@@ -2778,7 +2800,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L50" t="n">
         <v>15.55</v>
@@ -2880,7 +2902,7 @@
         <v>4.5</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>15.57</v>
@@ -2931,7 +2953,7 @@
         <v>4.5</v>
       </c>
       <c r="K53" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>15.57999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>4.5</v>
       </c>
       <c r="K54" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
         <v>15.58999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>4.6</v>
       </c>
       <c r="K55" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>15.58999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>4.6</v>
       </c>
       <c r="K56" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L56" t="n">
         <v>15.57999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L57" t="n">
         <v>15.57999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>4.999999999999998</v>
       </c>
       <c r="K58" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L58" t="n">
         <v>15.54</v>
@@ -3237,7 +3259,7 @@
         <v>5.199999999999998</v>
       </c>
       <c r="K59" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L59" t="n">
         <v>15.53</v>
@@ -3339,7 +3361,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L61" t="n">
         <v>15.51</v>
@@ -3390,7 +3412,7 @@
         <v>5.399999999999997</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L62" t="n">
         <v>15.5</v>
@@ -3441,7 +3463,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L63" t="n">
         <v>15.48</v>
@@ -3492,7 +3514,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>15.46</v>
@@ -3543,7 +3565,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L65" t="n">
         <v>15.45</v>
@@ -3594,7 +3616,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L66" t="n">
         <v>15.44</v>
@@ -3645,7 +3667,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K67" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>15.41000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L69" t="n">
         <v>15.41000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>15.40000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>15.40000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>5.899999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>-28.57142857142867</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L72" t="n">
         <v>15.37</v>
@@ -3951,7 +3973,7 @@
         <v>5.899999999999997</v>
       </c>
       <c r="K73" t="n">
-        <v>-28.57142857142867</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L73" t="n">
         <v>15.35</v>
@@ -4002,7 +4024,7 @@
         <v>5.899999999999997</v>
       </c>
       <c r="K74" t="n">
-        <v>-28.57142857142867</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L74" t="n">
         <v>15.33</v>
@@ -4053,7 +4075,7 @@
         <v>5.899999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>-23.07692307692318</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L75" t="n">
         <v>15.31</v>
@@ -4104,7 +4126,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K76" t="n">
-        <v>-28.57142857142867</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L76" t="n">
         <v>15.28</v>
@@ -4155,7 +4177,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-38.46153846153855</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>15.26</v>
@@ -4206,7 +4228,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L78" t="n">
         <v>15.25</v>
@@ -4257,7 +4279,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>-19.99999999999993</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L79" t="n">
         <v>15.24</v>
@@ -4308,7 +4330,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-27.27272727272731</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>15.22</v>
@@ -4359,7 +4381,7 @@
         <v>6.5</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>15.22</v>
@@ -4410,7 +4432,7 @@
         <v>6.6</v>
       </c>
       <c r="K82" t="n">
-        <v>-16.66666666666657</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L82" t="n">
         <v>15.23</v>
@@ -4461,7 +4483,7 @@
         <v>6.6</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.090909090909033</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L83" t="n">
         <v>15.24</v>
@@ -4512,7 +4534,7 @@
         <v>6.6</v>
       </c>
       <c r="K84" t="n">
-        <v>-9.090909090909033</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L84" t="n">
         <v>15.25</v>
@@ -4563,7 +4585,7 @@
         <v>6.700000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-16.66666666666669</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L85" t="n">
         <v>15.25</v>
@@ -4614,7 +4636,7 @@
         <v>6.800000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>-7.692307692307629</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L86" t="n">
         <v>15.27</v>
@@ -4665,7 +4687,7 @@
         <v>6.900000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>7.692307692307629</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L87" t="n">
         <v>15.30000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>6.900000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L88" t="n">
         <v>15.31000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>6.900000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>15.32</v>
@@ -4818,7 +4840,7 @@
         <v>7.000000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>7.692307692307629</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L90" t="n">
         <v>15.35</v>
@@ -4869,7 +4891,7 @@
         <v>7.200000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-6.666666666666619</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>15.34000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>7.200000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>15.34000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>7.200000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>15.34000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>7.200000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>7.692307692307776</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L94" t="n">
         <v>15.34000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>7.4</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>15.37000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>7.4</v>
       </c>
       <c r="K96" t="n">
-        <v>28.57142857142851</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>15.39000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>7.4</v>
       </c>
       <c r="K97" t="n">
-        <v>28.57142857142851</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>15.40000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>7.4</v>
       </c>
       <c r="K98" t="n">
-        <v>16.66666666666657</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>15.41000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>7.4</v>
       </c>
       <c r="K99" t="n">
-        <v>16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>15.42000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>7.4</v>
       </c>
       <c r="K100" t="n">
-        <v>27.27272727272731</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>15.42000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>7.5</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>15.43</v>
@@ -5430,7 +5452,7 @@
         <v>7.5</v>
       </c>
       <c r="K102" t="n">
-        <v>11.11111111111107</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>15.44</v>
@@ -5481,7 +5503,7 @@
         <v>7.5</v>
       </c>
       <c r="K103" t="n">
-        <v>11.11111111111107</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>15.45</v>
@@ -5532,7 +5554,7 @@
         <v>7.5</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L104" t="n">
         <v>15.46</v>
@@ -5583,7 +5605,7 @@
         <v>7.5</v>
       </c>
       <c r="K105" t="n">
-        <v>25.00000000000017</v>
+        <v>-100</v>
       </c>
       <c r="L105" t="n">
         <v>15.45</v>
@@ -5634,7 +5656,7 @@
         <v>7.5</v>
       </c>
       <c r="K106" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L106" t="n">
         <v>15.44</v>
@@ -5685,7 +5707,7 @@
         <v>7.6</v>
       </c>
       <c r="K107" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L107" t="n">
         <v>15.42000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>7.700000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-25.00000000000017</v>
+        <v>-100</v>
       </c>
       <c r="L108" t="n">
         <v>15.39</v>
@@ -5787,7 +5809,7 @@
         <v>7.800000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.11111111111107</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L109" t="n">
         <v>15.37</v>
@@ -5838,7 +5860,7 @@
         <v>7.900000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>15.36</v>
@@ -5889,7 +5911,7 @@
         <v>8.000000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L111" t="n">
         <v>15.35</v>
@@ -5940,7 +5962,7 @@
         <v>8.200000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>-20.00000000000007</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L112" t="n">
         <v>15.32</v>
@@ -5991,7 +6013,7 @@
         <v>8.300000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>-9.090909090909207</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L113" t="n">
         <v>15.3</v>
@@ -6042,7 +6064,7 @@
         <v>8.400000000000004</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L114" t="n">
         <v>15.29</v>
@@ -6093,7 +6115,7 @@
         <v>8.400000000000004</v>
       </c>
       <c r="K115" t="n">
-        <v>-19.99999999999986</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L115" t="n">
         <v>15.28</v>
@@ -6144,7 +6166,7 @@
         <v>8.400000000000004</v>
       </c>
       <c r="K116" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>15.27</v>
@@ -6195,7 +6217,7 @@
         <v>8.400000000000004</v>
       </c>
       <c r="K117" t="n">
-        <v>-19.99999999999986</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L117" t="n">
         <v>15.27</v>
@@ -6246,7 +6268,7 @@
         <v>8.500000000000005</v>
       </c>
       <c r="K118" t="n">
-        <v>-27.27272727272722</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L118" t="n">
         <v>15.27</v>
@@ -6297,7 +6319,7 @@
         <v>8.700000000000006</v>
       </c>
       <c r="K119" t="n">
-        <v>-7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>15.28</v>
@@ -6348,7 +6370,7 @@
         <v>8.700000000000006</v>
       </c>
       <c r="K120" t="n">
-        <v>-7.692307692307629</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L120" t="n">
         <v>15.28</v>
@@ -6399,7 +6421,7 @@
         <v>8.700000000000006</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L121" t="n">
         <v>15.29</v>
@@ -6450,7 +6472,7 @@
         <v>8.700000000000006</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L122" t="n">
         <v>15.32</v>
@@ -6501,7 +6523,7 @@
         <v>8.900000000000007</v>
       </c>
       <c r="K123" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L123" t="n">
         <v>15.32</v>
@@ -6558,7 +6580,7 @@
         <v>9.300000000000008</v>
       </c>
       <c r="K124" t="n">
-        <v>11.11111111111102</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L124" t="n">
         <v>15.35</v>
@@ -6617,7 +6639,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L125" t="n">
         <v>15.36</v>
@@ -6680,7 +6702,7 @@
         <v>9.600000000000007</v>
       </c>
       <c r="K126" t="n">
-        <v>4.76190476190473</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L126" t="n">
         <v>15.38</v>
@@ -6743,7 +6765,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>27.99999999999989</v>
+        <v>50</v>
       </c>
       <c r="L127" t="n">
         <v>15.45</v>
@@ -6806,7 +6828,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>33.33333333333328</v>
+        <v>42.85714285714282</v>
       </c>
       <c r="L128" t="n">
         <v>15.53</v>
@@ -6865,7 +6887,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>40.74074074074062</v>
+        <v>55.55555555555549</v>
       </c>
       <c r="L129" t="n">
         <v>15.63</v>
@@ -6924,7 +6946,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>40.74074074074066</v>
+        <v>57.89473684210523</v>
       </c>
       <c r="L130" t="n">
         <v>15.74</v>
@@ -6983,7 +7005,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>40.74074074074056</v>
+        <v>49.99999999999986</v>
       </c>
       <c r="L131" t="n">
         <v>15.84</v>
@@ -7042,7 +7064,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>40.74074074074066</v>
+        <v>50</v>
       </c>
       <c r="L132" t="n">
         <v>15.92</v>
@@ -7101,7 +7123,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>38.46153846153839</v>
+        <v>37.49999999999999</v>
       </c>
       <c r="L133" t="n">
         <v>16.02</v>
@@ -7160,7 +7182,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>38.46153846153839</v>
+        <v>59.99999999999995</v>
       </c>
       <c r="L134" t="n">
         <v>16.09</v>
@@ -7211,7 +7233,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>38.46153846153839</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="L135" t="n">
         <v>16.18</v>
@@ -7262,7 +7284,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>40.74074074074062</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L136" t="n">
         <v>16.27</v>
@@ -7313,7 +7335,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>42.85714285714277</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L137" t="n">
         <v>16.32</v>
@@ -7364,7 +7386,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>50</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L138" t="n">
         <v>16.38</v>
@@ -7415,7 +7437,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>48.14814814814809</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L139" t="n">
         <v>16.41</v>
@@ -7466,7 +7488,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>29.03225806451614</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L140" t="n">
         <v>16.39</v>
@@ -7517,7 +7539,7 @@
         <v>11.9</v>
       </c>
       <c r="K141" t="n">
-        <v>31.24999999999997</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>16.39</v>
@@ -7568,7 +7590,7 @@
         <v>12</v>
       </c>
       <c r="K142" t="n">
-        <v>27.27272727272732</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L142" t="n">
         <v>16.4</v>
@@ -7619,7 +7641,7 @@
         <v>12.1</v>
       </c>
       <c r="K143" t="n">
-        <v>31.25000000000004</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L143" t="n">
         <v>16.4</v>
@@ -7670,7 +7692,7 @@
         <v>12.2</v>
       </c>
       <c r="K144" t="n">
-        <v>17.24137931034493</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L144" t="n">
         <v>16.38</v>
@@ -7721,7 +7743,7 @@
         <v>12.2</v>
       </c>
       <c r="K145" t="n">
-        <v>25.92592592592602</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L145" t="n">
         <v>16.36</v>
@@ -7772,7 +7794,7 @@
         <v>12.3</v>
       </c>
       <c r="K146" t="n">
-        <v>25.92592592592597</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L146" t="n">
         <v>16.34</v>
@@ -7823,7 +7845,7 @@
         <v>12.3</v>
       </c>
       <c r="K147" t="n">
-        <v>9.090909090909092</v>
+        <v>-40.00000000000064</v>
       </c>
       <c r="L147" t="n">
         <v>16.31</v>
@@ -7874,7 +7896,7 @@
         <v>12.3</v>
       </c>
       <c r="K148" t="n">
-        <v>9.090909090909092</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L148" t="n">
         <v>16.27</v>
@@ -7925,7 +7947,7 @@
         <v>12.3</v>
       </c>
       <c r="K149" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L149" t="n">
         <v>16.22</v>
@@ -7976,7 +7998,7 @@
         <v>12.4</v>
       </c>
       <c r="K150" t="n">
-        <v>-22.22222222222226</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L150" t="n">
         <v>16.2</v>
@@ -8027,7 +8049,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>-11.11111111111116</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L151" t="n">
         <v>16.17999999999999</v>
@@ -8078,7 +8100,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>-5.882352941176397</v>
+        <v>-20</v>
       </c>
       <c r="L152" t="n">
         <v>16.15999999999999</v>
@@ -8129,7 +8151,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
         <v>16.15999999999999</v>
@@ -8180,7 +8202,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>-5.882352941176618</v>
+        <v>20</v>
       </c>
       <c r="L154" t="n">
         <v>16.16999999999999</v>
@@ -8231,7 +8253,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-5.882352941176618</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>16.17999999999999</v>
@@ -8282,7 +8304,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-12.50000000000008</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>16.17999999999999</v>
@@ -8333,7 +8355,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-25.00000000000022</v>
+        <v>-20</v>
       </c>
       <c r="L157" t="n">
         <v>16.16999999999999</v>
@@ -8384,7 +8406,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-33.33333333333381</v>
+        <v>-20</v>
       </c>
       <c r="L158" t="n">
         <v>16.15999999999999</v>
@@ -8435,7 +8457,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-42.85714285714329</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>16.14999999999999</v>
@@ -8486,7 +8508,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>16.14999999999999</v>
@@ -8537,7 +8559,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-33.3333333333336</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>16.13999999999999</v>
@@ -8588,7 +8610,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>-11.11111111111146</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>16.14999999999999</v>
@@ -8639,7 +8661,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>16.13999999999999</v>
@@ -8690,7 +8712,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>16.12999999999999</v>
@@ -8741,7 +8763,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>16.11999999999999</v>
@@ -8792,7 +8814,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>11.11111111111146</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L166" t="n">
         <v>16.13</v>

--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.4000000000000021</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.4000000000000021</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.4000000000000021</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6000000000000032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.8000000000000043</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.000000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.100000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.100000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.100000000000007</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L12" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.100000000000007</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-14.28571428571414</v>
-      </c>
-      <c r="L13" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,22 +876,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.200000000000006</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.300000000000006</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-11.11111111111102</v>
-      </c>
-      <c r="L15" t="n">
-        <v>15.81000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,22 +946,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25.00000000000006</v>
-      </c>
-      <c r="L16" t="n">
-        <v>15.81000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>15.83000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1016,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="K18" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15.83000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.500000000000005</v>
-      </c>
-      <c r="K19" t="n">
-        <v>50</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15.86000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,22 +1086,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.600000000000005</v>
-      </c>
-      <c r="K20" t="n">
-        <v>20</v>
-      </c>
-      <c r="L20" t="n">
-        <v>15.87000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.700000000000005</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>15.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>15.855</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.700000000000005</v>
-      </c>
-      <c r="K22" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>15.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1435,24 +1191,10 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>15.92000000000001</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,24 +1226,10 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="K24" t="n">
-        <v>20</v>
-      </c>
-      <c r="L24" t="n">
-        <v>15.92000000000001</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,24 +1261,10 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>15.93</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.900000000000004</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L26" t="n">
-        <v>15.92000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>15.865</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.900000000000004</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L27" t="n">
-        <v>15.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.000000000000005</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L28" t="n">
-        <v>15.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.100000000000007</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L29" t="n">
-        <v>15.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>15.86500000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.400000000000007</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-71.42857142857115</v>
-      </c>
-      <c r="L30" t="n">
-        <v>15.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.400000000000007</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-71.42857142857115</v>
-      </c>
-      <c r="L31" t="n">
-        <v>15.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>15.835</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.600000000000007</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-25.00000000000006</v>
-      </c>
-      <c r="L32" t="n">
-        <v>15.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="N32" t="n">
-        <v>15.82333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.800000000000006</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-39.99999999999996</v>
-      </c>
-      <c r="L33" t="n">
-        <v>15.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>15.815</v>
-      </c>
-      <c r="N33" t="n">
-        <v>15.81666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-45.4545454545454</v>
-      </c>
-      <c r="L34" t="n">
-        <v>15.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.000000000000005</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-45.4545454545454</v>
-      </c>
-      <c r="L35" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>15.765</v>
-      </c>
-      <c r="N35" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.300000000000004</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-14.28571428571436</v>
-      </c>
-      <c r="L36" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>15.75000000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.500000000000004</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-19.99999999999995</v>
-      </c>
-      <c r="L37" t="n">
-        <v>15.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>15.725</v>
-      </c>
-      <c r="N37" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.500000000000004</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-28.57142857142867</v>
-      </c>
-      <c r="L38" t="n">
-        <v>15.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>15.70000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>15.74333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.600000000000003</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L39" t="n">
-        <v>15.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>15.66500000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.800000000000002</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>15.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>15.64500000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.900000000000002</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L41" t="n">
-        <v>15.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>15.61500000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>15.70666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.000000000000002</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>15.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>15.59000000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>15.69666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.000000000000002</v>
-      </c>
-      <c r="K43" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L43" t="n">
-        <v>15.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>15.57000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>15.68666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.000000000000002</v>
-      </c>
-      <c r="K44" t="n">
-        <v>20</v>
-      </c>
-      <c r="L44" t="n">
-        <v>15.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>15.55000000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>15.67333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.000000000000002</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L45" t="n">
-        <v>15.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>15.53000000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>15.66333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="K46" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>15.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>15.52000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>15.65333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>15.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>15.51000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>15.64333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.200000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L48" t="n">
-        <v>15.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>15.51000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>15.63666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.300000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>20</v>
-      </c>
-      <c r="L49" t="n">
-        <v>15.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>15.50000000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>15.62333333333334</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.300000000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>50</v>
-      </c>
-      <c r="L50" t="n">
-        <v>15.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>15.50500000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>15.61333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>15.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>15.50500000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>15.59666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>20</v>
-      </c>
-      <c r="L52" t="n">
-        <v>15.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>15.50000000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>15.58333333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K53" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" t="n">
-        <v>15.57999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>15.50500000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>15.57333333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>20</v>
-      </c>
-      <c r="L54" t="n">
-        <v>15.58999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>15.51500000000002</v>
-      </c>
-      <c r="N54" t="n">
-        <v>15.56333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L55" t="n">
-        <v>15.58999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>15.52500000000002</v>
-      </c>
-      <c r="N55" t="n">
-        <v>15.55000000000001</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L56" t="n">
-        <v>15.57999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>15.52000000000002</v>
-      </c>
-      <c r="N56" t="n">
-        <v>15.54000000000001</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4.699999999999999</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L57" t="n">
-        <v>15.57999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>15.53000000000002</v>
-      </c>
-      <c r="N57" t="n">
-        <v>15.53333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L58" t="n">
-        <v>15.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>15.52500000000002</v>
-      </c>
-      <c r="N58" t="n">
-        <v>15.52000000000001</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5.199999999999998</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L59" t="n">
-        <v>15.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>15.53500000000002</v>
-      </c>
-      <c r="N59" t="n">
-        <v>15.51000000000001</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5.199999999999998</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>15.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>15.53500000000002</v>
-      </c>
-      <c r="N60" t="n">
-        <v>15.51000000000001</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5.299999999999997</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L61" t="n">
-        <v>15.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>15.53500000000002</v>
-      </c>
-      <c r="N61" t="n">
-        <v>15.50666666666668</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5.399999999999997</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L62" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>15.53500000000002</v>
-      </c>
-      <c r="N62" t="n">
-        <v>15.50000000000001</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L63" t="n">
-        <v>15.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>15.53000000000002</v>
-      </c>
-      <c r="N63" t="n">
-        <v>15.49666666666668</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L64" t="n">
-        <v>15.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>15.52500000000002</v>
-      </c>
-      <c r="N64" t="n">
-        <v>15.49666666666668</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L65" t="n">
-        <v>15.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>15.52000000000002</v>
-      </c>
-      <c r="N65" t="n">
-        <v>15.50000000000001</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L66" t="n">
-        <v>15.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>15.51000000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>15.49333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>15.41000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>15.49500000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>15.49000000000001</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.699999999999996</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L68" t="n">
-        <v>15.42000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>15.48000000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>15.49000000000001</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.699999999999996</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L69" t="n">
-        <v>15.41000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>15.47000000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>15.49333333333334</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.699999999999996</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>15.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>15.46000000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>15.49000000000001</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.699999999999996</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>15.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>15.45500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>15.49000000000001</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L72" t="n">
-        <v>15.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>15.43500000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>15.48000000000001</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L73" t="n">
-        <v>15.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>15.415</v>
-      </c>
-      <c r="N73" t="n">
-        <v>15.47000000000001</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>15.395</v>
-      </c>
-      <c r="N74" t="n">
-        <v>15.46000000000001</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L75" t="n">
-        <v>15.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="N75" t="n">
-        <v>15.45000000000001</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.999999999999996</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L76" t="n">
-        <v>15.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="N76" t="n">
-        <v>15.43333333333334</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3076,19 @@
         <v>15.53</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>5.999999999999996</v>
+        <v>15.1</v>
       </c>
       <c r="K77" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>15.26</v>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>15.335</v>
-      </c>
-      <c r="N77" t="n">
-        <v>15.41666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3115,23 @@
         <v>15.52</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>6.199999999999998</v>
+        <v>15.2</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L78" t="n">
-        <v>15.25</v>
+        <v>15.1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>15.335</v>
-      </c>
-      <c r="N78" t="n">
-        <v>15.40333333333334</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3158,23 @@
         <v>15.50833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>6.199999999999998</v>
+        <v>15.3</v>
       </c>
       <c r="K79" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L79" t="n">
-        <v>15.24</v>
+        <v>15.1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>15.325</v>
-      </c>
-      <c r="N79" t="n">
-        <v>15.39333333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3201,19 @@
         <v>15.49666666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>6.299999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="K80" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L80" t="n">
-        <v>15.22</v>
-      </c>
+        <v>15.2</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="N80" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3240,23 @@
         <v>15.48666666666666</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>6.5</v>
+        <v>15.3</v>
       </c>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>15.22</v>
+        <v>15.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="N81" t="n">
-        <v>15.37666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3283,23 @@
         <v>15.475</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>6.6</v>
+        <v>15.4</v>
       </c>
       <c r="K82" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L82" t="n">
-        <v>15.23</v>
+        <v>15.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="N82" t="n">
-        <v>15.36666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3326,19 @@
         <v>15.465</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>6.6</v>
+        <v>15.3</v>
       </c>
       <c r="K83" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L83" t="n">
-        <v>15.24</v>
-      </c>
+        <v>15.3</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>15.29500000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>15.35666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3365,23 @@
         <v>15.45499999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>6.6</v>
+        <v>15.3</v>
       </c>
       <c r="K84" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L84" t="n">
-        <v>15.25</v>
+        <v>15.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>15.29000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>15.34666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3408,23 @@
         <v>15.44333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>6.700000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="K85" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L85" t="n">
-        <v>15.25</v>
+        <v>15.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>15.28000000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>15.33666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3451,23 @@
         <v>15.435</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>6.800000000000002</v>
+        <v>15.3</v>
       </c>
       <c r="K86" t="n">
-        <v>24.99999999999994</v>
-      </c>
-      <c r="L86" t="n">
-        <v>15.27</v>
+        <v>15.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>15.27500000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3494,23 @@
         <v>15.42833333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>6.900000000000002</v>
+        <v>15.3</v>
       </c>
       <c r="K87" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L87" t="n">
-        <v>15.30000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>15.28000000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>15.32333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3537,23 @@
         <v>15.42333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>6.900000000000002</v>
+        <v>15.4</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L88" t="n">
-        <v>15.31000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>15.28000000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>15.32666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3580,23 @@
         <v>15.41666666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>6.900000000000002</v>
+        <v>15.4</v>
       </c>
       <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>15.32</v>
+        <v>15.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>15.28000000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>15.32333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3623,23 @@
         <v>15.41666666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>7.000000000000002</v>
+        <v>15.4</v>
       </c>
       <c r="K90" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L90" t="n">
-        <v>15.35</v>
+        <v>15.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>15.28500000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>15.32333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3666,23 @@
         <v>15.41333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>7.200000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>15.34000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>15.28000000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3709,23 @@
         <v>15.40666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>7.200000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>15.34000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>15.28500000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>15.31333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3755,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J93" t="n">
-        <v>7.200000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>15.34000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>15.29000000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3796,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J94" t="n">
-        <v>7.200000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L94" t="n">
-        <v>15.34000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>15.29500000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>15.30666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3834,23 @@
         <v>15.40499999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>7.4</v>
+        <v>15.3</v>
       </c>
       <c r="K95" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>15.37000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>15.31000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3877,23 @@
         <v>15.40333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>7.4</v>
+        <v>15.5</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
-      </c>
-      <c r="L96" t="n">
-        <v>15.39000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>15.33000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>15.31333333333334</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3923,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J97" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>20</v>
-      </c>
-      <c r="L97" t="n">
-        <v>15.40000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>15.35000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3964,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J98" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>20</v>
-      </c>
-      <c r="L98" t="n">
-        <v>15.41000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>15.36000000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>15.32333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4005,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J99" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>15.42000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>15.37000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>15.32666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4046,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J100" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>15.42000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>15.38500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>15.33000000000001</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4087,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>15.43</v>
+        <v>15.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>15.38500000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>15.33000000000001</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4128,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>15.44</v>
+        <v>15.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>15.39000000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>15.33666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4169,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L103" t="n">
-        <v>15.45</v>
+        <v>15.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>15.39500000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>15.34333333333334</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4210,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>15.46</v>
+        <v>15.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>15.40000000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4251,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>15.45</v>
+        <v>15.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>15.41000000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>15.35666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4292,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L106" t="n">
-        <v>15.44</v>
+        <v>15.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>15.415</v>
-      </c>
-      <c r="N106" t="n">
-        <v>15.36666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4333,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J107" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>15.42000000000001</v>
+        <v>15.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>15.41000000000001</v>
-      </c>
-      <c r="N107" t="n">
-        <v>15.37333333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4374,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="J108" t="n">
-        <v>7.700000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L108" t="n">
-        <v>15.39</v>
+        <v>15.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>15.40000000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,31 +4412,23 @@
         <v>15.38166666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>7.800000000000002</v>
+        <v>15.3</v>
       </c>
       <c r="K109" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L109" t="n">
-        <v>15.37</v>
+        <v>15.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>15.39500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,31 +4455,23 @@
         <v>15.37833333333332</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>7.900000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>15.36</v>
+        <v>15.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>15.39000000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>15.37666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4498,23 @@
         <v>15.37499999999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>8.000000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="K111" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L111" t="n">
-        <v>15.35</v>
+        <v>15.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>15.39000000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>15.37333333333334</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4541,23 @@
         <v>15.36666666666665</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>8.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="K112" t="n">
-        <v>-42.85714285714278</v>
-      </c>
-      <c r="L112" t="n">
-        <v>15.32</v>
+        <v>15.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>15.38000000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>15.36666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +4584,23 @@
         <v>15.35999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>8.300000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="K113" t="n">
-        <v>-25.00000000000006</v>
-      </c>
-      <c r="L113" t="n">
-        <v>15.3</v>
+        <v>15.3</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>15.37500000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>15.36333333333334</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +4627,23 @@
         <v>15.35499999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>8.400000000000004</v>
+        <v>15.3</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111102</v>
-      </c>
-      <c r="L114" t="n">
-        <v>15.29</v>
+        <v>15.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>15.37500000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>15.36333333333334</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +4670,23 @@
         <v>15.35166666666665</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>8.400000000000004</v>
+        <v>15.3</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111102</v>
-      </c>
-      <c r="L115" t="n">
-        <v>15.28</v>
+        <v>15.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>15.36500000000001</v>
-      </c>
-      <c r="N115" t="n">
-        <v>15.36666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +4713,23 @@
         <v>15.34833333333332</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>8.400000000000004</v>
+        <v>15.3</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>15.27</v>
+        <v>15.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>15.35500000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>15.36666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,31 +4756,23 @@
         <v>15.34333333333332</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>8.400000000000004</v>
+        <v>15.3</v>
       </c>
       <c r="K117" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L117" t="n">
-        <v>15.27</v>
+        <v>15.3</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>15.34500000000001</v>
-      </c>
-      <c r="N117" t="n">
-        <v>15.36333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,31 +4799,23 @@
         <v>15.34166666666665</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>8.500000000000005</v>
+        <v>15.2</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L118" t="n">
-        <v>15.27</v>
+        <v>15.3</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>15.33000000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>15.35666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,31 +4842,23 @@
         <v>15.33999999999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>8.700000000000006</v>
+        <v>15.2</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>15.28</v>
+        <v>15.3</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>15.32500000000001</v>
-      </c>
-      <c r="N119" t="n">
-        <v>15.35666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6361,31 +4885,23 @@
         <v>15.33833333333332</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>8.700000000000006</v>
+        <v>15.4</v>
       </c>
       <c r="K120" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L120" t="n">
-        <v>15.28</v>
+        <v>15.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="N120" t="n">
-        <v>15.35333333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,31 +4928,23 @@
         <v>15.33833333333332</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>8.700000000000006</v>
+        <v>15.3</v>
       </c>
       <c r="K121" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L121" t="n">
-        <v>15.29</v>
+        <v>15.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="N121" t="n">
-        <v>15.35666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,31 +4971,23 @@
         <v>15.33666666666665</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>8.700000000000006</v>
+        <v>15.4</v>
       </c>
       <c r="K122" t="n">
-        <v>49.99999999999978</v>
-      </c>
-      <c r="L122" t="n">
-        <v>15.32</v>
+        <v>15.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="N122" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,34 +5017,20 @@
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>8.900000000000007</v>
+        <v>15.3</v>
       </c>
       <c r="K123" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L123" t="n">
-        <v>15.32</v>
+        <v>15.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>15.31000000000001</v>
-      </c>
-      <c r="N123" t="n">
-        <v>15.35666666666667</v>
-      </c>
-      <c r="O123" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="P123" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,36 +5060,20 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>9.300000000000008</v>
+        <v>15.3</v>
       </c>
       <c r="K124" t="n">
-        <v>33.33333333333307</v>
-      </c>
-      <c r="L124" t="n">
-        <v>15.35</v>
+        <v>15.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>15.32000000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>15.36666666666667</v>
-      </c>
-      <c r="O124" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6633,40 +5103,20 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>9.500000000000007</v>
+        <v>15.4</v>
       </c>
       <c r="K125" t="n">
-        <v>9.090909090909033</v>
-      </c>
-      <c r="L125" t="n">
-        <v>15.36</v>
+        <v>15.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>15.32000000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>15.36333333333334</v>
-      </c>
-      <c r="O125" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,40 +5146,20 @@
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>9.600000000000007</v>
+        <v>15.5</v>
       </c>
       <c r="K126" t="n">
-        <v>16.66666666666657</v>
-      </c>
-      <c r="L126" t="n">
-        <v>15.38</v>
+        <v>15.3</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>15.32500000000001</v>
-      </c>
-      <c r="N126" t="n">
-        <v>15.36333333333334</v>
-      </c>
-      <c r="O126" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6759,41 +5189,21 @@
         <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>10.10000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="K127" t="n">
-        <v>50</v>
-      </c>
-      <c r="L127" t="n">
-        <v>15.45</v>
+        <v>15.3</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>15.36000000000001</v>
-      </c>
-      <c r="N127" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="O127" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>지정 매도</t>
-        </is>
-      </c>
-      <c r="S127" t="n">
-        <v>1.029415584415585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -6822,36 +5232,20 @@
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>10.10000000000001</v>
+        <v>16</v>
       </c>
       <c r="K128" t="n">
-        <v>42.85714285714282</v>
-      </c>
-      <c r="L128" t="n">
-        <v>15.53</v>
+        <v>15.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>15.40000000000001</v>
-      </c>
-      <c r="N128" t="n">
-        <v>15.39666666666667</v>
-      </c>
-      <c r="O128" t="n">
-        <v>16</v>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6878,39 +5272,21 @@
         <v>15.37666666666666</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="J129" t="n">
-        <v>10.50000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>55.55555555555549</v>
-      </c>
-      <c r="L129" t="n">
-        <v>15.63</v>
+        <v>15.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>15.45500000000001</v>
-      </c>
-      <c r="N129" t="n">
-        <v>15.42666666666667</v>
-      </c>
-      <c r="O129" t="n">
-        <v>16</v>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6937,39 +5313,21 @@
         <v>15.39499999999999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J130" t="n">
-        <v>10.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>57.89473684210523</v>
-      </c>
-      <c r="L130" t="n">
-        <v>15.74</v>
+        <v>15.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>15.51000000000001</v>
-      </c>
-      <c r="N130" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="O130" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,39 +5354,21 @@
         <v>15.41166666666666</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="J131" t="n">
-        <v>10.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>49.99999999999986</v>
-      </c>
-      <c r="L131" t="n">
-        <v>15.84</v>
+        <v>15.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>15.56500000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>15.49333333333333</v>
-      </c>
-      <c r="O131" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q131" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7055,39 +5395,21 @@
         <v>15.42833333333332</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J132" t="n">
-        <v>10.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>50</v>
-      </c>
-      <c r="L132" t="n">
-        <v>15.92</v>
+        <v>15.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="N132" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="O132" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q132" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,39 +5436,21 @@
         <v>15.44499999999999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J133" t="n">
-        <v>10.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>37.49999999999999</v>
-      </c>
-      <c r="L133" t="n">
-        <v>16.02</v>
+        <v>15.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>15.67000000000001</v>
-      </c>
-      <c r="N133" t="n">
-        <v>15.54666666666667</v>
-      </c>
-      <c r="O133" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q133" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7176,28 +5480,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J134" t="n">
-        <v>11.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>59.99999999999995</v>
-      </c>
-      <c r="L134" t="n">
-        <v>16.09</v>
+        <v>15.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="N134" t="n">
-        <v>15.57666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7227,28 +5521,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J135" t="n">
-        <v>11.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>57.1428571428571</v>
-      </c>
-      <c r="L135" t="n">
-        <v>16.18</v>
+        <v>15.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="N135" t="n">
-        <v>15.60666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7278,28 +5562,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="J136" t="n">
-        <v>11.10000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>39.99999999999986</v>
-      </c>
-      <c r="L136" t="n">
-        <v>16.27</v>
+        <v>15.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>15.825</v>
-      </c>
-      <c r="N136" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7329,28 +5603,18 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J137" t="n">
-        <v>11.20000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>45.4545454545454</v>
-      </c>
-      <c r="L137" t="n">
-        <v>16.32</v>
+        <v>15.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>15.885</v>
-      </c>
-      <c r="N137" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7380,28 +5644,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="J138" t="n">
-        <v>11.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>25.00000000000022</v>
-      </c>
-      <c r="L138" t="n">
-        <v>16.38</v>
+        <v>15.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>15.955</v>
-      </c>
-      <c r="N138" t="n">
-        <v>15.72666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,29 +5685,19 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.7999999999999989</v>
-      </c>
-      <c r="J139" t="n">
-        <v>11.40000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L139" t="n">
-        <v>16.41</v>
+        <v>15.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="N139" t="n">
-        <v>15.77333333333334</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
+        <v>1.086503267973856</v>
       </c>
     </row>
     <row r="140">
@@ -7482,28 +5726,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J140" t="n">
-        <v>11.80000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L140" t="n">
-        <v>16.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>16.065</v>
-      </c>
-      <c r="N140" t="n">
-        <v>15.80333333333334</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,28 +5761,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="J141" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K141" t="n">
-        <v>20</v>
-      </c>
-      <c r="L141" t="n">
-        <v>16.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>16.11500000000001</v>
-      </c>
-      <c r="N141" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7584,28 +5796,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J142" t="n">
-        <v>12</v>
-      </c>
-      <c r="K142" t="n">
-        <v>9.090909090909268</v>
-      </c>
-      <c r="L142" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>16.16000000000001</v>
-      </c>
-      <c r="N142" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7635,28 +5831,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J143" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-9.090909090909268</v>
-      </c>
-      <c r="L143" t="n">
-        <v>16.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>16.21000000000001</v>
-      </c>
-      <c r="N143" t="n">
-        <v>15.91333333333334</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7686,28 +5866,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-16.66666666666671</v>
-      </c>
-      <c r="L144" t="n">
-        <v>16.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>16.23500000000001</v>
-      </c>
-      <c r="N144" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7737,1099 +5901,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-27.27272727272715</v>
-      </c>
-      <c r="L145" t="n">
-        <v>16.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>16.27000000000001</v>
-      </c>
-      <c r="N145" t="n">
-        <v>15.96666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E146" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>109859.0309</v>
-      </c>
-      <c r="G146" t="n">
-        <v>15.68166666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J146" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-27.27272727272756</v>
-      </c>
-      <c r="L146" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="M146" t="n">
-        <v>16.30500000000001</v>
-      </c>
-      <c r="N146" t="n">
-        <v>15.99666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>14575.4938</v>
-      </c>
-      <c r="G147" t="n">
-        <v>15.69499999999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J147" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-40.00000000000064</v>
-      </c>
-      <c r="L147" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="M147" t="n">
-        <v>16.31500000000001</v>
-      </c>
-      <c r="N147" t="n">
-        <v>16.02666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>7129.037</v>
-      </c>
-      <c r="G148" t="n">
-        <v>15.70833333333333</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J148" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-55.55555555555608</v>
-      </c>
-      <c r="L148" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="M148" t="n">
-        <v>16.32500000000001</v>
-      </c>
-      <c r="N148" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2151.203</v>
-      </c>
-      <c r="G149" t="n">
-        <v>15.72166666666666</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J149" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-20.00000000000057</v>
-      </c>
-      <c r="L149" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="M149" t="n">
-        <v>16.31500000000001</v>
-      </c>
-      <c r="N149" t="n">
-        <v>16.08666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>200</v>
-      </c>
-      <c r="G150" t="n">
-        <v>15.73166666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-60.00000000000028</v>
-      </c>
-      <c r="L150" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="M150" t="n">
-        <v>16.29500000000001</v>
-      </c>
-      <c r="N150" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>6930</v>
-      </c>
-      <c r="G151" t="n">
-        <v>15.74666666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.49999999999999</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-20.00000000000057</v>
-      </c>
-      <c r="L151" t="n">
-        <v>16.17999999999999</v>
-      </c>
-      <c r="M151" t="n">
-        <v>16.28500000000001</v>
-      </c>
-      <c r="N151" t="n">
-        <v>16.13666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3582.006</v>
-      </c>
-      <c r="G152" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J152" t="n">
-        <v>12.59999999999999</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L152" t="n">
-        <v>16.15999999999999</v>
-      </c>
-      <c r="M152" t="n">
-        <v>16.28000000000001</v>
-      </c>
-      <c r="N152" t="n">
-        <v>16.16000000000001</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F153" t="n">
-        <v>29010</v>
-      </c>
-      <c r="G153" t="n">
-        <v>15.775</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J153" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="K153" t="n">
-        <v>20</v>
-      </c>
-      <c r="L153" t="n">
-        <v>16.15999999999999</v>
-      </c>
-      <c r="M153" t="n">
-        <v>16.28000000000001</v>
-      </c>
-      <c r="N153" t="n">
-        <v>16.19333333333334</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>549.8148</v>
-      </c>
-      <c r="G154" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J154" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="K154" t="n">
-        <v>20</v>
-      </c>
-      <c r="L154" t="n">
-        <v>16.16999999999999</v>
-      </c>
-      <c r="M154" t="n">
-        <v>16.27500000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>16.21333333333334</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>16117.2364</v>
-      </c>
-      <c r="G155" t="n">
-        <v>15.80166666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J155" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>16.17999999999999</v>
-      </c>
-      <c r="M155" t="n">
-        <v>16.27000000000001</v>
-      </c>
-      <c r="N155" t="n">
-        <v>16.24000000000001</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4702</v>
-      </c>
-      <c r="G156" t="n">
-        <v>15.81333333333333</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J156" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>16.17999999999999</v>
-      </c>
-      <c r="M156" t="n">
-        <v>16.26000000000001</v>
-      </c>
-      <c r="N156" t="n">
-        <v>16.26333333333334</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>28405.5403</v>
-      </c>
-      <c r="G157" t="n">
-        <v>15.82333333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J157" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L157" t="n">
-        <v>16.16999999999999</v>
-      </c>
-      <c r="M157" t="n">
-        <v>16.24000000000001</v>
-      </c>
-      <c r="N157" t="n">
-        <v>16.26666666666667</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>15.83333333333334</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J158" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L158" t="n">
-        <v>16.15999999999999</v>
-      </c>
-      <c r="M158" t="n">
-        <v>16.21500000000001</v>
-      </c>
-      <c r="N158" t="n">
-        <v>16.27000000000001</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5040</v>
-      </c>
-      <c r="G159" t="n">
-        <v>15.84333333333334</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J159" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>16.14999999999999</v>
-      </c>
-      <c r="M159" t="n">
-        <v>16.18500000000001</v>
-      </c>
-      <c r="N159" t="n">
-        <v>16.26000000000001</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1137</v>
-      </c>
-      <c r="G160" t="n">
-        <v>15.85333333333334</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J160" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L160" t="n">
-        <v>16.14999999999999</v>
-      </c>
-      <c r="M160" t="n">
-        <v>16.17500000000001</v>
-      </c>
-      <c r="N160" t="n">
-        <v>16.24666666666668</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>15.865</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J161" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>16.13999999999999</v>
-      </c>
-      <c r="M161" t="n">
-        <v>16.16000000000002</v>
-      </c>
-      <c r="N161" t="n">
-        <v>16.23666666666668</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D162" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>16</v>
-      </c>
-      <c r="F162" t="n">
-        <v>29904</v>
-      </c>
-      <c r="G162" t="n">
-        <v>15.87833333333334</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J162" t="n">
-        <v>12.89999999999999</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>16.14999999999999</v>
-      </c>
-      <c r="M162" t="n">
-        <v>16.15500000000002</v>
-      </c>
-      <c r="N162" t="n">
-        <v>16.23666666666668</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>18000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>15.89000000000001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J163" t="n">
-        <v>12.99999999999998</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L163" t="n">
-        <v>16.13999999999999</v>
-      </c>
-      <c r="M163" t="n">
-        <v>16.15000000000002</v>
-      </c>
-      <c r="N163" t="n">
-        <v>16.23333333333334</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E164" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>247213.2529</v>
-      </c>
-      <c r="G164" t="n">
-        <v>15.90166666666667</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J164" t="n">
-        <v>12.99999999999998</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L164" t="n">
-        <v>16.12999999999999</v>
-      </c>
-      <c r="M164" t="n">
-        <v>16.15000000000002</v>
-      </c>
-      <c r="N164" t="n">
-        <v>16.22666666666668</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>50322.3126</v>
-      </c>
-      <c r="G165" t="n">
-        <v>15.91333333333334</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J165" t="n">
-        <v>12.99999999999998</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L165" t="n">
-        <v>16.11999999999999</v>
-      </c>
-      <c r="M165" t="n">
-        <v>16.15000000000002</v>
-      </c>
-      <c r="N165" t="n">
-        <v>16.22000000000001</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F166" t="n">
-        <v>157325.8008</v>
-      </c>
-      <c r="G166" t="n">
-        <v>15.92833333333334</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J166" t="n">
-        <v>13.19999999999998</v>
-      </c>
-      <c r="K166" t="n">
-        <v>50.00000000000044</v>
-      </c>
-      <c r="L166" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="M166" t="n">
-        <v>16.15500000000002</v>
-      </c>
-      <c r="N166" t="n">
-        <v>16.21666666666668</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -3076,17 +3076,13 @@
         <v>15.53</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3121,16 +3117,12 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K78" t="n">
         <v>15.1</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3158,14 +3150,12 @@
         <v>15.50833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>15.1</v>
       </c>
@@ -3207,12 +3197,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K80" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3240,22 +3234,14 @@
         <v>15.48666666666666</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K81" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3291,12 +3277,10 @@
       <c r="J82" t="n">
         <v>15.4</v>
       </c>
-      <c r="K82" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -3326,18 +3310,18 @@
         <v>15.465</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3365,20 +3349,16 @@
         <v>15.45499999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K84" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3408,20 +3388,16 @@
         <v>15.44333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K85" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3451,17 +3427,13 @@
         <v>15.435</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K86" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,17 +3466,13 @@
         <v>15.42833333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K87" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,17 +3505,13 @@
         <v>15.42333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K88" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,17 +3544,13 @@
         <v>15.41666666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,17 +3583,13 @@
         <v>15.41666666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K90" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,17 +3622,13 @@
         <v>15.41333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K91" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,17 +3661,13 @@
         <v>15.40666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K92" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,9 +3706,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,9 +3745,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,17 +3778,13 @@
         <v>15.40499999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3877,17 +3817,13 @@
         <v>15.40333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,9 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,9 +3901,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,9 +3940,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,9 +3979,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,9 +4018,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,9 +4057,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,9 +4096,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,9 +4174,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,9 +4213,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,9 +4252,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,9 +4291,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,17 +4324,13 @@
         <v>15.38166666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K109" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,17 +4363,13 @@
         <v>15.37833333333332</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,17 +4402,13 @@
         <v>15.37499999999999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K111" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,17 +4441,13 @@
         <v>15.36666666666665</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,17 +4480,13 @@
         <v>15.35999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K113" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4627,17 +4519,13 @@
         <v>15.35499999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,17 +4558,13 @@
         <v>15.35166666666665</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K115" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4713,17 +4597,13 @@
         <v>15.34833333333332</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K116" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4756,17 +4636,13 @@
         <v>15.34333333333332</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K117" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4799,17 +4675,13 @@
         <v>15.34166666666665</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K118" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,17 +4714,13 @@
         <v>15.33999999999999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K119" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4885,17 +4753,13 @@
         <v>15.33833333333332</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K120" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4928,17 +4792,13 @@
         <v>15.33833333333332</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K121" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,17 +4831,13 @@
         <v>15.33666666666665</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K122" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,17 +4870,13 @@
         <v>15.33333333333332</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,17 +4909,13 @@
         <v>15.33666666666665</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K124" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5100,17 +4948,13 @@
         <v>15.33666666666665</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K125" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,17 +4987,13 @@
         <v>15.33833333333332</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K126" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,17 +5026,13 @@
         <v>15.34999999999999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K127" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,17 +5065,13 @@
         <v>15.35999999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>16</v>
-      </c>
-      <c r="K128" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,9 +5110,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,9 +5149,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,20 +5185,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5398,17 +5222,11 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5442,14 +5260,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5483,14 +5295,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5524,14 +5330,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5565,14 +5365,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5606,14 +5400,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +5435,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5685,19 +5467,13 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>1.086503267973856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -5831,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>

--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
         <v>3840</v>
       </c>
       <c r="G2" t="n">
-        <v>15.96499999999999</v>
+        <v>15.96833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F3" t="n">
-        <v>16994</v>
+        <v>3840</v>
       </c>
       <c r="G3" t="n">
-        <v>15.95833333333333</v>
+        <v>15.96499999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E4" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F4" t="n">
-        <v>41800</v>
+        <v>16994</v>
       </c>
       <c r="G4" t="n">
-        <v>15.95499999999999</v>
+        <v>15.95833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>15.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3840</v>
+        <v>41800</v>
       </c>
       <c r="G5" t="n">
-        <v>15.95166666666666</v>
+        <v>15.95499999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>15.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2993.5849</v>
+        <v>3840</v>
       </c>
       <c r="G6" t="n">
-        <v>15.94666666666666</v>
+        <v>15.95166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F7" t="n">
-        <v>32397.9039</v>
+        <v>2993.5849</v>
       </c>
       <c r="G7" t="n">
-        <v>15.93833333333332</v>
+        <v>15.94666666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C8" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E8" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>32397.9039</v>
       </c>
       <c r="G8" t="n">
-        <v>15.93333333333332</v>
+        <v>15.93833333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F9" t="n">
-        <v>12318.0584</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>15.92833333333332</v>
+        <v>15.93333333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>12318.0584</v>
       </c>
       <c r="G10" t="n">
-        <v>15.92333333333332</v>
+        <v>15.92833333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>15.8</v>
       </c>
       <c r="F11" t="n">
-        <v>543</v>
+        <v>300</v>
       </c>
       <c r="G11" t="n">
-        <v>15.91999999999999</v>
+        <v>15.92333333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>15.8</v>
       </c>
       <c r="F12" t="n">
-        <v>9157</v>
+        <v>543</v>
       </c>
       <c r="G12" t="n">
-        <v>15.91666666666665</v>
+        <v>15.91999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>15.8</v>
       </c>
       <c r="F13" t="n">
-        <v>2683.0271</v>
+        <v>9157</v>
       </c>
       <c r="G13" t="n">
-        <v>15.91333333333332</v>
+        <v>15.91666666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>2683.0271</v>
       </c>
       <c r="G14" t="n">
-        <v>15.91166666666665</v>
+        <v>15.91333333333332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F15" t="n">
-        <v>643.6295</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15.90666666666665</v>
+        <v>15.91166666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>643.6295</v>
       </c>
       <c r="G16" t="n">
-        <v>15.90499999999998</v>
+        <v>15.90666666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>15.9</v>
       </c>
       <c r="F17" t="n">
-        <v>32855.5592</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>15.90333333333332</v>
+        <v>15.90499999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>15.9</v>
       </c>
       <c r="F18" t="n">
-        <v>160</v>
+        <v>32855.5592</v>
       </c>
       <c r="G18" t="n">
-        <v>15.90166666666665</v>
+        <v>15.90333333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F19" t="n">
-        <v>20329.8113</v>
+        <v>160</v>
       </c>
       <c r="G19" t="n">
         <v>15.90166666666665</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>480.2868</v>
+        <v>20329.8113</v>
       </c>
       <c r="G20" t="n">
-        <v>15.89999999999998</v>
+        <v>15.90166666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>480.2868</v>
       </c>
       <c r="G21" t="n">
         <v>15.89999999999998</v>
@@ -1145,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>11555</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
         <v>15.89999999999998</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>3000</v>
+        <v>11555</v>
       </c>
       <c r="G23" t="n">
-        <v>15.89833333333332</v>
+        <v>15.89999999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>15.9</v>
       </c>
       <c r="F24" t="n">
-        <v>29799</v>
+        <v>3000</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89666666666665</v>
+        <v>15.89833333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>15.9</v>
       </c>
       <c r="F25" t="n">
-        <v>67500</v>
+        <v>29799</v>
       </c>
       <c r="G25" t="n">
-        <v>15.89333333333331</v>
+        <v>15.89666666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>15.9</v>
       </c>
       <c r="C26" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D26" t="n">
         <v>15.9</v>
       </c>
       <c r="E26" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F26" t="n">
-        <v>54300</v>
+        <v>67500</v>
       </c>
       <c r="G26" t="n">
-        <v>15.88999999999998</v>
+        <v>15.89333333333331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C27" t="n">
         <v>15.8</v>
       </c>
       <c r="D27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E27" t="n">
         <v>15.8</v>
       </c>
       <c r="F27" t="n">
-        <v>35400</v>
+        <v>54300</v>
       </c>
       <c r="G27" t="n">
-        <v>15.88666666666665</v>
+        <v>15.88999999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>15.8</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D28" t="n">
         <v>15.8</v>
       </c>
       <c r="E28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F28" t="n">
-        <v>281594.765</v>
+        <v>35400</v>
       </c>
       <c r="G28" t="n">
-        <v>15.88166666666665</v>
+        <v>15.88666666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>15.8</v>
       </c>
       <c r="C29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D29" t="n">
         <v>15.8</v>
       </c>
       <c r="E29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>39100</v>
+        <v>281594.765</v>
       </c>
       <c r="G29" t="n">
-        <v>15.87833333333331</v>
+        <v>15.88166666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>15.8</v>
       </c>
       <c r="C30" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D30" t="n">
         <v>15.8</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F30" t="n">
-        <v>408887</v>
+        <v>39100</v>
       </c>
       <c r="G30" t="n">
-        <v>15.86999999999998</v>
+        <v>15.87833333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C31" t="n">
         <v>15.5</v>
       </c>
       <c r="D31" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E31" t="n">
         <v>15.5</v>
       </c>
       <c r="F31" t="n">
-        <v>10000</v>
+        <v>408887</v>
       </c>
       <c r="G31" t="n">
-        <v>15.86166666666665</v>
+        <v>15.86999999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C32" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D32" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E32" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>15.85999999999998</v>
+        <v>15.86166666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C33" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D33" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E33" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>15.85333333333332</v>
+        <v>15.85999999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C34" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D34" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E34" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F34" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>15.84499999999998</v>
+        <v>15.85333333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>15.5</v>
       </c>
       <c r="C35" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D35" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E35" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F35" t="n">
-        <v>140726.0343</v>
+        <v>200000</v>
       </c>
       <c r="G35" t="n">
-        <v>15.83499999999998</v>
+        <v>15.84499999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C36" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D36" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E36" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>140726.0343</v>
       </c>
       <c r="G36" t="n">
-        <v>15.82999999999998</v>
+        <v>15.83499999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F37" t="n">
-        <v>3740.3923</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>15.82166666666665</v>
+        <v>15.82999999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C38" t="n">
         <v>15.4</v>
       </c>
       <c r="D38" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="E38" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F38" t="n">
-        <v>28907.7419</v>
+        <v>3740.3923</v>
       </c>
       <c r="G38" t="n">
-        <v>15.81333333333331</v>
+        <v>15.82166666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>15.5</v>
       </c>
       <c r="C39" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D39" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E39" t="n">
         <v>15.3</v>
       </c>
       <c r="F39" t="n">
-        <v>32100</v>
+        <v>28907.7419</v>
       </c>
       <c r="G39" t="n">
-        <v>15.80333333333332</v>
+        <v>15.81333333333331</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>15.5</v>
       </c>
       <c r="C40" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D40" t="n">
         <v>15.5</v>
       </c>
       <c r="E40" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F40" t="n">
-        <v>9900</v>
+        <v>32100</v>
       </c>
       <c r="G40" t="n">
-        <v>15.79666666666665</v>
+        <v>15.80333333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F41" t="n">
-        <v>4061</v>
+        <v>9900</v>
       </c>
       <c r="G41" t="n">
-        <v>15.78833333333332</v>
+        <v>15.79666666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F42" t="n">
-        <v>2220</v>
+        <v>4061</v>
       </c>
       <c r="G42" t="n">
-        <v>15.78166666666665</v>
+        <v>15.78833333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>15.5</v>
       </c>
       <c r="F43" t="n">
-        <v>4440</v>
+        <v>2220</v>
       </c>
       <c r="G43" t="n">
-        <v>15.77499999999998</v>
+        <v>15.78166666666665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>15.5</v>
       </c>
       <c r="F44" t="n">
-        <v>3610</v>
+        <v>4440</v>
       </c>
       <c r="G44" t="n">
-        <v>15.76833333333332</v>
+        <v>15.77499999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>15.5</v>
       </c>
       <c r="F45" t="n">
-        <v>14150</v>
+        <v>3610</v>
       </c>
       <c r="G45" t="n">
-        <v>15.76166666666665</v>
+        <v>15.76833333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C46" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D46" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E46" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F46" t="n">
-        <v>16397.0129</v>
+        <v>14150</v>
       </c>
       <c r="G46" t="n">
-        <v>15.75666666666665</v>
+        <v>15.76166666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>15.6</v>
       </c>
       <c r="D47" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E47" t="n">
         <v>15.6</v>
       </c>
       <c r="F47" t="n">
-        <v>3330</v>
+        <v>16397.0129</v>
       </c>
       <c r="G47" t="n">
-        <v>15.75166666666665</v>
+        <v>15.75666666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F48" t="n">
-        <v>71656.3694</v>
+        <v>3330</v>
       </c>
       <c r="G48" t="n">
-        <v>15.74833333333332</v>
+        <v>15.75166666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>71656.3694</v>
       </c>
       <c r="G49" t="n">
-        <v>15.74333333333332</v>
+        <v>15.74833333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>15.6</v>
       </c>
       <c r="F50" t="n">
-        <v>64463.9803</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>15.73833333333332</v>
+        <v>15.74333333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>15.6</v>
       </c>
       <c r="C51" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D51" t="n">
         <v>15.6</v>
       </c>
       <c r="E51" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F51" t="n">
-        <v>40332.2837</v>
+        <v>64463.9803</v>
       </c>
       <c r="G51" t="n">
-        <v>15.73166666666665</v>
+        <v>15.73833333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>15.6</v>
       </c>
       <c r="C52" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D52" t="n">
         <v>15.6</v>
@@ -2195,10 +2195,10 @@
         <v>15.5</v>
       </c>
       <c r="F52" t="n">
-        <v>9517</v>
+        <v>40332.2837</v>
       </c>
       <c r="G52" t="n">
-        <v>15.72666666666666</v>
+        <v>15.73166666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>15.6</v>
       </c>
       <c r="E53" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F53" t="n">
-        <v>3096.217948717949</v>
+        <v>9517</v>
       </c>
       <c r="G53" t="n">
-        <v>15.72166666666666</v>
+        <v>15.72666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C54" t="n">
         <v>15.6</v>
@@ -2262,13 +2262,13 @@
         <v>15.6</v>
       </c>
       <c r="E54" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F54" t="n">
-        <v>4800</v>
+        <v>3096.217948717949</v>
       </c>
       <c r="G54" t="n">
-        <v>15.71666666666666</v>
+        <v>15.72166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>15.5</v>
       </c>
       <c r="C55" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D55" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E55" t="n">
         <v>15.5</v>
       </c>
       <c r="F55" t="n">
-        <v>4330</v>
+        <v>4800</v>
       </c>
       <c r="G55" t="n">
-        <v>15.70999999999999</v>
+        <v>15.71666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>15.5</v>
       </c>
       <c r="F56" t="n">
-        <v>9108.9228</v>
+        <v>4330</v>
       </c>
       <c r="G56" t="n">
-        <v>15.70333333333332</v>
+        <v>15.70999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>15.5</v>
       </c>
       <c r="C57" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D57" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E57" t="n">
         <v>15.5</v>
       </c>
       <c r="F57" t="n">
-        <v>908.782</v>
+        <v>9108.9228</v>
       </c>
       <c r="G57" t="n">
-        <v>15.69833333333333</v>
+        <v>15.70333333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C58" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E58" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F58" t="n">
-        <v>368444.7464</v>
+        <v>908.782</v>
       </c>
       <c r="G58" t="n">
-        <v>15.68833333333333</v>
+        <v>15.69833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>15.4</v>
       </c>
       <c r="C59" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D59" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E59" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F59" t="n">
-        <v>3000</v>
+        <v>368444.7464</v>
       </c>
       <c r="G59" t="n">
-        <v>15.68166666666666</v>
+        <v>15.68833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2469,16 +2469,16 @@
         <v>15.5</v>
       </c>
       <c r="D60" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E60" t="n">
         <v>15.4</v>
       </c>
       <c r="F60" t="n">
-        <v>6003</v>
+        <v>3000</v>
       </c>
       <c r="G60" t="n">
-        <v>15.67666666666666</v>
+        <v>15.68166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>15.4</v>
       </c>
       <c r="C61" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D61" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E61" t="n">
         <v>15.4</v>
       </c>
       <c r="F61" t="n">
-        <v>5470</v>
+        <v>6003</v>
       </c>
       <c r="G61" t="n">
-        <v>15.66833333333333</v>
+        <v>15.67666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F62" t="n">
-        <v>9449</v>
+        <v>5470</v>
       </c>
       <c r="G62" t="n">
-        <v>15.66166666666666</v>
+        <v>15.66833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>9449</v>
       </c>
       <c r="G63" t="n">
-        <v>15.65666666666666</v>
+        <v>15.66166666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>15.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1420.8441</v>
+        <v>300</v>
       </c>
       <c r="G64" t="n">
-        <v>15.64833333333332</v>
+        <v>15.65666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>15.4</v>
       </c>
       <c r="F65" t="n">
-        <v>6944.6785</v>
+        <v>1420.8441</v>
       </c>
       <c r="G65" t="n">
-        <v>15.63999999999999</v>
+        <v>15.64833333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>15.4</v>
       </c>
       <c r="F66" t="n">
-        <v>4180</v>
+        <v>6944.6785</v>
       </c>
       <c r="G66" t="n">
-        <v>15.63166666666666</v>
+        <v>15.63999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F67" t="n">
-        <v>25248.1116</v>
+        <v>4180</v>
       </c>
       <c r="G67" t="n">
-        <v>15.62499999999999</v>
+        <v>15.63166666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F68" t="n">
-        <v>11906.6946</v>
+        <v>25248.1116</v>
       </c>
       <c r="G68" t="n">
-        <v>15.61666666666666</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>15.4</v>
       </c>
       <c r="F69" t="n">
-        <v>11130</v>
+        <v>11906.6946</v>
       </c>
       <c r="G69" t="n">
-        <v>15.61166666666666</v>
+        <v>15.61666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>15.4</v>
       </c>
       <c r="F70" t="n">
-        <v>98708.18180000001</v>
+        <v>11130</v>
       </c>
       <c r="G70" t="n">
-        <v>15.60499999999999</v>
+        <v>15.61166666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>15.4</v>
       </c>
       <c r="F71" t="n">
-        <v>20000</v>
+        <v>98708.18180000001</v>
       </c>
       <c r="G71" t="n">
-        <v>15.59833333333332</v>
+        <v>15.60499999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C72" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D72" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E72" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F72" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>15.58833333333333</v>
+        <v>15.59833333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C73" t="n">
         <v>15.2</v>
       </c>
       <c r="D73" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E73" t="n">
         <v>15.2</v>
@@ -2933,7 +2933,7 @@
         <v>10000</v>
       </c>
       <c r="G73" t="n">
-        <v>15.57833333333333</v>
+        <v>15.58833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>15.2</v>
       </c>
       <c r="F74" t="n">
-        <v>4574.6266</v>
+        <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>15.56666666666666</v>
+        <v>15.57833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>15.2</v>
       </c>
       <c r="F75" t="n">
-        <v>20199.0551</v>
+        <v>4574.6266</v>
       </c>
       <c r="G75" t="n">
-        <v>15.55666666666666</v>
+        <v>15.56666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>15.2</v>
       </c>
       <c r="C76" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D76" t="n">
         <v>15.2</v>
       </c>
       <c r="E76" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F76" t="n">
-        <v>46896.7168</v>
+        <v>20199.0551</v>
       </c>
       <c r="G76" t="n">
-        <v>15.54333333333333</v>
+        <v>15.55666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C77" t="n">
         <v>15.1</v>
       </c>
       <c r="D77" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E77" t="n">
         <v>15.1</v>
       </c>
       <c r="F77" t="n">
-        <v>33798.2198</v>
+        <v>46896.7168</v>
       </c>
       <c r="G77" t="n">
-        <v>15.53</v>
+        <v>15.54333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C78" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D78" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E78" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F78" t="n">
-        <v>11000</v>
+        <v>33798.2198</v>
       </c>
       <c r="G78" t="n">
-        <v>15.52</v>
+        <v>15.53</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C79" t="n">
         <v>15.3</v>
@@ -3141,21 +3141,23 @@
         <v>15.3</v>
       </c>
       <c r="E79" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F79" t="n">
-        <v>70</v>
+        <v>11000</v>
       </c>
       <c r="G79" t="n">
-        <v>15.50833333333333</v>
+        <v>15.52</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K79" t="n">
         <v>15.1</v>
       </c>
@@ -3173,22 +3175,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F80" t="n">
-        <v>25373.5769</v>
+        <v>70</v>
       </c>
       <c r="G80" t="n">
-        <v>15.49666666666666</v>
+        <v>15.50833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -3216,31 +3218,35 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C81" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D81" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E81" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F81" t="n">
-        <v>6000</v>
+        <v>25373.5769</v>
       </c>
       <c r="G81" t="n">
-        <v>15.48666666666666</v>
+        <v>15.49666666666666</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
@@ -3251,22 +3257,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C82" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D82" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E82" t="n">
         <v>15.3</v>
       </c>
       <c r="F82" t="n">
-        <v>30504</v>
+        <v>6000</v>
       </c>
       <c r="G82" t="n">
-        <v>15.475</v>
+        <v>15.48666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -3275,9 +3281,11 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3292,31 +3300,35 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C83" t="n">
         <v>15.3</v>
       </c>
       <c r="D83" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E83" t="n">
         <v>15.3</v>
       </c>
       <c r="F83" t="n">
-        <v>5760</v>
+        <v>30504</v>
       </c>
       <c r="G83" t="n">
-        <v>15.465</v>
+        <v>15.475</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,19 +3355,23 @@
         <v>15.3</v>
       </c>
       <c r="F84" t="n">
-        <v>13300</v>
+        <v>5760</v>
       </c>
       <c r="G84" t="n">
-        <v>15.45499999999999</v>
+        <v>15.465</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3373,19 +3389,19 @@
         <v>15.3</v>
       </c>
       <c r="C85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D85" t="n">
         <v>15.3</v>
       </c>
       <c r="E85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F85" t="n">
-        <v>24126.0625</v>
+        <v>13300</v>
       </c>
       <c r="G85" t="n">
-        <v>15.44333333333333</v>
+        <v>15.45499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3394,7 +3410,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,19 +3430,19 @@
         <v>15.3</v>
       </c>
       <c r="C86" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D86" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E86" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F86" t="n">
-        <v>20690</v>
+        <v>24126.0625</v>
       </c>
       <c r="G86" t="n">
-        <v>15.435</v>
+        <v>15.44333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3433,7 +3451,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,7 +3471,7 @@
         <v>15.3</v>
       </c>
       <c r="C87" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D87" t="n">
         <v>15.4</v>
@@ -3460,10 +3480,10 @@
         <v>15.3</v>
       </c>
       <c r="F87" t="n">
-        <v>6000</v>
+        <v>20690</v>
       </c>
       <c r="G87" t="n">
-        <v>15.42833333333333</v>
+        <v>15.435</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3472,7 +3492,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,7 +3509,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C88" t="n">
         <v>15.4</v>
@@ -3496,13 +3518,13 @@
         <v>15.4</v>
       </c>
       <c r="E88" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="G88" t="n">
-        <v>15.42333333333333</v>
+        <v>15.42833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3511,7 +3533,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,13 +3559,13 @@
         <v>15.4</v>
       </c>
       <c r="E89" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F89" t="n">
-        <v>7010</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>15.41666666666666</v>
+        <v>15.42333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3550,7 +3574,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,16 +3594,16 @@
         <v>15.4</v>
       </c>
       <c r="C90" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D90" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E90" t="n">
         <v>15.3</v>
       </c>
       <c r="F90" t="n">
-        <v>51704</v>
+        <v>7010</v>
       </c>
       <c r="G90" t="n">
         <v>15.41666666666666</v>
@@ -3589,7 +3615,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,22 +3632,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C91" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D91" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E91" t="n">
         <v>15.3</v>
       </c>
       <c r="F91" t="n">
-        <v>248596.0028</v>
+        <v>51704</v>
       </c>
       <c r="G91" t="n">
-        <v>15.41333333333333</v>
+        <v>15.41666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3628,7 +3656,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,10 +3685,10 @@
         <v>15.3</v>
       </c>
       <c r="F92" t="n">
-        <v>210400</v>
+        <v>248596.0028</v>
       </c>
       <c r="G92" t="n">
-        <v>15.40666666666666</v>
+        <v>15.41333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3667,7 +3697,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,10 +3726,10 @@
         <v>15.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3600</v>
+        <v>210400</v>
       </c>
       <c r="G93" t="n">
-        <v>15.40333333333333</v>
+        <v>15.40666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3706,7 +3738,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,10 +3767,10 @@
         <v>15.3</v>
       </c>
       <c r="F94" t="n">
-        <v>10100</v>
+        <v>3600</v>
       </c>
       <c r="G94" t="n">
-        <v>15.40166666666666</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3745,7 +3779,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,19 +3799,19 @@
         <v>15.3</v>
       </c>
       <c r="C95" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D95" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E95" t="n">
         <v>15.3</v>
       </c>
       <c r="F95" t="n">
-        <v>238268</v>
+        <v>10100</v>
       </c>
       <c r="G95" t="n">
-        <v>15.40499999999999</v>
+        <v>15.40166666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3784,7 +3820,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,7 +3837,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C96" t="n">
         <v>15.5</v>
@@ -3808,13 +3846,13 @@
         <v>15.5</v>
       </c>
       <c r="E96" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>238268</v>
       </c>
       <c r="G96" t="n">
-        <v>15.40333333333333</v>
+        <v>15.40499999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3823,7 +3861,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,10 +3890,10 @@
         <v>15.5</v>
       </c>
       <c r="F97" t="n">
-        <v>2836.7741</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>15.40499999999999</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3862,7 +3902,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,10 +3931,10 @@
         <v>15.5</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>2836.7741</v>
       </c>
       <c r="G98" t="n">
-        <v>15.40666666666666</v>
+        <v>15.40499999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3901,7 +3943,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3928,10 +3972,10 @@
         <v>15.5</v>
       </c>
       <c r="F99" t="n">
-        <v>196.2257</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>15.40999999999999</v>
+        <v>15.40666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3940,7 +3984,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,7 +4013,7 @@
         <v>15.5</v>
       </c>
       <c r="F100" t="n">
-        <v>5649.7774</v>
+        <v>196.2257</v>
       </c>
       <c r="G100" t="n">
         <v>15.40999999999999</v>
@@ -3979,7 +4025,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,19 +4042,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F101" t="n">
-        <v>7113.4629</v>
+        <v>5649.7774</v>
       </c>
       <c r="G101" t="n">
         <v>15.40999999999999</v>
@@ -4018,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,10 +4095,10 @@
         <v>15.4</v>
       </c>
       <c r="F102" t="n">
-        <v>3896.103896103896</v>
+        <v>7113.4629</v>
       </c>
       <c r="G102" t="n">
-        <v>15.40833333333333</v>
+        <v>15.40999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4057,7 +4107,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,10 +4136,10 @@
         <v>15.4</v>
       </c>
       <c r="F103" t="n">
-        <v>3672.769</v>
+        <v>3896.103896103896</v>
       </c>
       <c r="G103" t="n">
-        <v>15.40666666666666</v>
+        <v>15.40833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4096,7 +4148,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,7 +4165,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C104" t="n">
         <v>15.4</v>
@@ -4120,13 +4174,13 @@
         <v>15.4</v>
       </c>
       <c r="E104" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F104" t="n">
-        <v>76987</v>
+        <v>3672.769</v>
       </c>
       <c r="G104" t="n">
-        <v>15.40499999999999</v>
+        <v>15.40666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4135,7 +4189,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,10 +4218,10 @@
         <v>15.3</v>
       </c>
       <c r="F105" t="n">
-        <v>95586</v>
+        <v>76987</v>
       </c>
       <c r="G105" t="n">
-        <v>15.40333333333333</v>
+        <v>15.40499999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4174,7 +4230,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,7 +4247,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C106" t="n">
         <v>15.4</v>
@@ -4198,13 +4256,13 @@
         <v>15.4</v>
       </c>
       <c r="E106" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F106" t="n">
-        <v>64.93000000000001</v>
+        <v>95586</v>
       </c>
       <c r="G106" t="n">
-        <v>15.39999999999999</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4213,7 +4271,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,22 +4288,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F107" t="n">
-        <v>10980.3921</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>15.39499999999999</v>
+        <v>15.39999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4252,7 +4312,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,22 +4329,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F108" t="n">
-        <v>5952.8134</v>
+        <v>10980.3921</v>
       </c>
       <c r="G108" t="n">
-        <v>15.38666666666666</v>
+        <v>15.39499999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4291,7 +4353,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,22 +4370,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F109" t="n">
-        <v>27638.783</v>
+        <v>5952.8134</v>
       </c>
       <c r="G109" t="n">
-        <v>15.38166666666666</v>
+        <v>15.38666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4330,7 +4394,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,22 +4411,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C110" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D110" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E110" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F110" t="n">
-        <v>64941.8427</v>
+        <v>27638.783</v>
       </c>
       <c r="G110" t="n">
-        <v>15.37833333333332</v>
+        <v>15.38166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4369,7 +4435,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4387,19 +4455,19 @@
         <v>15.2</v>
       </c>
       <c r="C111" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D111" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E111" t="n">
         <v>15.2</v>
       </c>
       <c r="F111" t="n">
-        <v>25006.0044</v>
+        <v>64941.8427</v>
       </c>
       <c r="G111" t="n">
-        <v>15.37499999999999</v>
+        <v>15.37833333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4408,7 +4476,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,19 +4496,19 @@
         <v>15.2</v>
       </c>
       <c r="C112" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D112" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E112" t="n">
         <v>15.2</v>
       </c>
-      <c r="E112" t="n">
-        <v>15.1</v>
-      </c>
       <c r="F112" t="n">
-        <v>27619.1752</v>
+        <v>25006.0044</v>
       </c>
       <c r="G112" t="n">
-        <v>15.36666666666665</v>
+        <v>15.37499999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4447,7 +4517,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,19 +4537,19 @@
         <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D113" t="n">
         <v>15.2</v>
       </c>
       <c r="E113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F113" t="n">
-        <v>4088.7788</v>
+        <v>27619.1752</v>
       </c>
       <c r="G113" t="n">
-        <v>15.35999999999999</v>
+        <v>15.36666666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4486,7 +4558,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,22 +4575,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F114" t="n">
-        <v>2570</v>
+        <v>4088.7788</v>
       </c>
       <c r="G114" t="n">
-        <v>15.35499999999999</v>
+        <v>15.35999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4525,7 +4599,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4555,7 +4631,7 @@
         <v>2570</v>
       </c>
       <c r="G115" t="n">
-        <v>15.35166666666665</v>
+        <v>15.35499999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4564,7 +4640,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,10 +4669,10 @@
         <v>15.3</v>
       </c>
       <c r="F116" t="n">
-        <v>10280</v>
+        <v>2570</v>
       </c>
       <c r="G116" t="n">
-        <v>15.34833333333332</v>
+        <v>15.35166666666665</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4603,7 +4681,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,10 +4710,10 @@
         <v>15.3</v>
       </c>
       <c r="F117" t="n">
-        <v>7710</v>
+        <v>10280</v>
       </c>
       <c r="G117" t="n">
-        <v>15.34333333333332</v>
+        <v>15.34833333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4642,7 +4722,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,22 +4739,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F118" t="n">
-        <v>13914.4243</v>
+        <v>7710</v>
       </c>
       <c r="G118" t="n">
-        <v>15.34166666666665</v>
+        <v>15.34333333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4681,7 +4763,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,19 +4783,19 @@
         <v>15.2</v>
       </c>
       <c r="C119" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D119" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E119" t="n">
         <v>15.2</v>
       </c>
       <c r="F119" t="n">
-        <v>7991</v>
+        <v>13914.4243</v>
       </c>
       <c r="G119" t="n">
-        <v>15.33999999999999</v>
+        <v>15.34166666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4720,7 +4804,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4735,7 +4821,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C120" t="n">
         <v>15.4</v>
@@ -4744,22 +4830,26 @@
         <v>15.4</v>
       </c>
       <c r="E120" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F120" t="n">
-        <v>49900</v>
+        <v>7991</v>
       </c>
       <c r="G120" t="n">
-        <v>15.33833333333332</v>
+        <v>15.33999999999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,7 +4864,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C121" t="n">
         <v>15.4</v>
@@ -4783,22 +4873,26 @@
         <v>15.4</v>
       </c>
       <c r="E121" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F121" t="n">
-        <v>70290</v>
+        <v>49900</v>
       </c>
       <c r="G121" t="n">
         <v>15.33833333333332</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,7 +4907,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C122" t="n">
         <v>15.4</v>
@@ -4822,13 +4916,13 @@
         <v>15.4</v>
       </c>
       <c r="E122" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F122" t="n">
-        <v>11245.6235</v>
+        <v>70290</v>
       </c>
       <c r="G122" t="n">
-        <v>15.33666666666665</v>
+        <v>15.33833333333332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4837,7 +4931,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,22 +4948,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C123" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D123" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E123" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F123" t="n">
-        <v>84896</v>
+        <v>11245.6235</v>
       </c>
       <c r="G123" t="n">
-        <v>15.33333333333332</v>
+        <v>15.33666666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4876,7 +4972,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,19 +4992,19 @@
         <v>15.3</v>
       </c>
       <c r="C124" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D124" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E124" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F124" t="n">
-        <v>147874.7342</v>
+        <v>84896</v>
       </c>
       <c r="G124" t="n">
-        <v>15.33666666666665</v>
+        <v>15.33333333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4915,7 +5013,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,19 +5030,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C125" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D125" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E125" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F125" t="n">
-        <v>324.2551</v>
+        <v>147874.7342</v>
       </c>
       <c r="G125" t="n">
         <v>15.33666666666665</v>
@@ -4954,7 +5054,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,22 +5071,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F126" t="n">
-        <v>12</v>
+        <v>324.2551</v>
       </c>
       <c r="G126" t="n">
-        <v>15.33833333333332</v>
+        <v>15.33666666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4993,7 +5095,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,22 +5112,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C127" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D127" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E127" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F127" t="n">
-        <v>117400</v>
+        <v>12</v>
       </c>
       <c r="G127" t="n">
-        <v>15.34999999999999</v>
+        <v>15.33833333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5032,7 +5136,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,7 +5153,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C128" t="n">
         <v>16</v>
@@ -5056,13 +5162,13 @@
         <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F128" t="n">
-        <v>35874.8625</v>
+        <v>117400</v>
       </c>
       <c r="G128" t="n">
-        <v>15.35999999999999</v>
+        <v>15.34999999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5071,7 +5177,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,19 +5197,19 @@
         <v>16</v>
       </c>
       <c r="C129" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="D129" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
       </c>
       <c r="F129" t="n">
-        <v>495210.093</v>
+        <v>35874.8625</v>
       </c>
       <c r="G129" t="n">
-        <v>15.37666666666666</v>
+        <v>15.35999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5110,7 +5218,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,22 +5235,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>16</v>
+      </c>
+      <c r="C130" t="n">
         <v>16.4</v>
       </c>
-      <c r="C130" t="n">
-        <v>16.5</v>
-      </c>
       <c r="D130" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E130" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="F130" t="n">
-        <v>214300</v>
+        <v>495210.093</v>
       </c>
       <c r="G130" t="n">
-        <v>15.39499999999999</v>
+        <v>15.37666666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5149,7 +5259,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,19 +5279,19 @@
         <v>16.4</v>
       </c>
       <c r="C131" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D131" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E131" t="n">
         <v>16.4</v>
       </c>
       <c r="F131" t="n">
-        <v>2789.2987</v>
+        <v>214300</v>
       </c>
       <c r="G131" t="n">
-        <v>15.41166666666666</v>
+        <v>15.39499999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5188,35 +5300,39 @@
         <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1.07343137254902</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="D132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="E132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F132" t="n">
-        <v>75400.8023</v>
+        <v>2789.2987</v>
       </c>
       <c r="G132" t="n">
-        <v>15.42833333333332</v>
+        <v>15.41166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5242,16 +5358,16 @@
         <v>16.2</v>
       </c>
       <c r="D133" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="E133" t="n">
         <v>16.2</v>
       </c>
       <c r="F133" t="n">
-        <v>21650</v>
+        <v>75400.8023</v>
       </c>
       <c r="G133" t="n">
-        <v>15.44499999999999</v>
+        <v>15.42833333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5271,22 +5387,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="C134" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="D134" t="n">
         <v>16.3</v>
       </c>
       <c r="E134" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F134" t="n">
-        <v>1430</v>
+        <v>21650</v>
       </c>
       <c r="G134" t="n">
-        <v>15.46333333333332</v>
+        <v>15.44499999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5315,13 +5431,13 @@
         <v>16.3</v>
       </c>
       <c r="E135" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F135" t="n">
-        <v>18501.3496</v>
+        <v>1430</v>
       </c>
       <c r="G135" t="n">
-        <v>15.48166666666665</v>
+        <v>15.46333333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5344,19 +5460,19 @@
         <v>16.3</v>
       </c>
       <c r="C136" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D136" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E136" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F136" t="n">
-        <v>22000</v>
+        <v>18501.3496</v>
       </c>
       <c r="G136" t="n">
-        <v>15.50333333333332</v>
+        <v>15.48166666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5376,22 +5492,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C137" t="n">
         <v>16.4</v>
       </c>
-      <c r="C137" t="n">
-        <v>16.5</v>
-      </c>
       <c r="D137" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E137" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F137" t="n">
-        <v>18480</v>
+        <v>22000</v>
       </c>
       <c r="G137" t="n">
-        <v>15.52666666666665</v>
+        <v>15.50333333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5414,19 +5530,19 @@
         <v>16.4</v>
       </c>
       <c r="C138" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="D138" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E138" t="n">
         <v>16.4</v>
       </c>
       <c r="F138" t="n">
-        <v>296339.0165</v>
+        <v>18480</v>
       </c>
       <c r="G138" t="n">
-        <v>15.54833333333332</v>
+        <v>15.52666666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5446,22 +5562,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C139" t="n">
         <v>16.6</v>
       </c>
-      <c r="C139" t="n">
-        <v>16.7</v>
-      </c>
       <c r="D139" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="E139" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="F139" t="n">
-        <v>66861.5474</v>
+        <v>296339.0165</v>
       </c>
       <c r="G139" t="n">
-        <v>15.57166666666665</v>
+        <v>15.54833333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5481,22 +5597,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="C140" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="D140" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="E140" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="F140" t="n">
-        <v>66550.8916</v>
+        <v>66861.5474</v>
       </c>
       <c r="G140" t="n">
-        <v>15.58999999999999</v>
+        <v>15.57166666666665</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5519,19 +5635,19 @@
         <v>16.4</v>
       </c>
       <c r="C141" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D141" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E141" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F141" t="n">
-        <v>41176.4646</v>
+        <v>66550.8916</v>
       </c>
       <c r="G141" t="n">
-        <v>15.60666666666665</v>
+        <v>15.58999999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5554,19 +5670,19 @@
         <v>16.4</v>
       </c>
       <c r="C142" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D142" t="n">
         <v>16.4</v>
       </c>
       <c r="E142" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F142" t="n">
-        <v>76606.58530000001</v>
+        <v>41176.4646</v>
       </c>
       <c r="G142" t="n">
-        <v>15.62333333333332</v>
+        <v>15.60666666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5586,22 +5702,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C143" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="D143" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="E143" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F143" t="n">
-        <v>3086.4197</v>
+        <v>76606.58530000001</v>
       </c>
       <c r="G143" t="n">
-        <v>15.63833333333332</v>
+        <v>15.62333333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5621,22 +5737,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="C144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="D144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="E144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="F144" t="n">
-        <v>486</v>
+        <v>3086.4197</v>
       </c>
       <c r="G144" t="n">
-        <v>15.65166666666665</v>
+        <v>15.63833333333332</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5668,10 +5784,10 @@
         <v>16.1</v>
       </c>
       <c r="F145" t="n">
-        <v>10000</v>
+        <v>486</v>
       </c>
       <c r="G145" t="n">
-        <v>15.66666666666666</v>
+        <v>15.65166666666665</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5686,6 +5802,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>15.66666666666666</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -441,33 +436,30 @@
         <v>15.9</v>
       </c>
       <c r="C2" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D2" t="n">
         <v>15.9</v>
       </c>
       <c r="E2" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F2" t="n">
-        <v>3840</v>
+        <v>36402.2262</v>
       </c>
       <c r="G2" t="n">
-        <v>15.89333333333334</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="H2" t="n">
-        <v>15.96833333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -488,24 +480,25 @@
         <v>15.9</v>
       </c>
       <c r="F3" t="n">
-        <v>3840</v>
+        <v>25640.1927</v>
       </c>
       <c r="G3" t="n">
-        <v>15.89333333333334</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="H3" t="n">
-        <v>15.96499999999999</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.8</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -517,33 +510,38 @@
         <v>15.8</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E4" t="n">
         <v>15.8</v>
       </c>
-      <c r="E4" t="n">
-        <v>15.7</v>
-      </c>
       <c r="F4" t="n">
-        <v>16994</v>
+        <v>58185.7974</v>
       </c>
       <c r="G4" t="n">
-        <v>15.88000000000001</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="H4" t="n">
-        <v>15.95833333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,24 +562,29 @@
         <v>15.9</v>
       </c>
       <c r="F5" t="n">
-        <v>41800</v>
+        <v>3734.6329</v>
       </c>
       <c r="G5" t="n">
-        <v>15.88000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>15.95499999999999</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +605,29 @@
         <v>15.9</v>
       </c>
       <c r="F6" t="n">
-        <v>3840</v>
+        <v>3662.6875</v>
       </c>
       <c r="G6" t="n">
-        <v>15.88000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>15.95166666666666</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,24 +648,29 @@
         <v>15.9</v>
       </c>
       <c r="F7" t="n">
-        <v>2993.5849</v>
+        <v>314.4654</v>
       </c>
       <c r="G7" t="n">
-        <v>15.88000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>15.94666666666666</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -669,33 +682,38 @@
         <v>15.8</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D8" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E8" t="n">
         <v>15.8</v>
       </c>
-      <c r="E8" t="n">
-        <v>15.7</v>
-      </c>
       <c r="F8" t="n">
-        <v>32397.9039</v>
+        <v>43020</v>
       </c>
       <c r="G8" t="n">
-        <v>15.86666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>15.93833333333332</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -716,24 +734,29 @@
         <v>15.9</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>7000</v>
       </c>
       <c r="G9" t="n">
-        <v>15.86666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>15.93333333333332</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +765,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D10" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E10" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F10" t="n">
-        <v>12318.0584</v>
+        <v>3000</v>
       </c>
       <c r="G10" t="n">
-        <v>15.85333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>15.92833333333332</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +808,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K11" t="n">
         <v>15.8</v>
       </c>
-      <c r="C11" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>300</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15.84666666666667</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15.92333333333332</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +851,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K12" t="n">
         <v>15.8</v>
       </c>
-      <c r="C12" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>543</v>
-      </c>
-      <c r="G12" t="n">
-        <v>15.84000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15.91999999999999</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +892,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12800</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K13" t="n">
         <v>15.8</v>
       </c>
-      <c r="C13" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9157</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15.83333333333334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15.91666666666665</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +933,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>15.8</v>
       </c>
-      <c r="C14" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2683.0271</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15.82666666666667</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15.91333333333332</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,25 +986,28 @@
         <v>15.9</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15.82666666666667</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>15.91166666666665</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1</v>
+        <v>15.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1.001329113924051</v>
       </c>
     </row>
     <row r="16">
@@ -970,36 +1015,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F16" t="n">
-        <v>643.6295</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15.82666666666667</v>
-      </c>
+        <v>19900</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>15.90666666666665</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1020,24 +1068,27 @@
         <v>15.9</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15.82666666666667</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>15.90499999999998</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,24 +1109,23 @@
         <v>15.9</v>
       </c>
       <c r="F18" t="n">
-        <v>32855.5592</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15.82666666666667</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>15.90333333333332</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>15.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,24 +1146,27 @@
         <v>15.9</v>
       </c>
       <c r="F19" t="n">
-        <v>160</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15.84000000000001</v>
-      </c>
+        <v>29460.9793</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>15.90166666666665</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1175,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F20" t="n">
-        <v>20329.8113</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15.84666666666667</v>
-      </c>
+        <v>27807.889</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>15.90166666666665</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,24 +1228,23 @@
         <v>15.9</v>
       </c>
       <c r="F21" t="n">
-        <v>480.2868</v>
-      </c>
-      <c r="G21" t="n">
-        <v>15.84666666666667</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>15.89999999999998</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>15.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1253,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" t="n">
-        <v>15.85333333333334</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>15.89999999999998</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1294,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F23" t="n">
-        <v>11555</v>
-      </c>
-      <c r="G23" t="n">
-        <v>15.87333333333334</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>15.89999999999998</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,24 +1347,23 @@
         <v>15.9</v>
       </c>
       <c r="F24" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G24" t="n">
-        <v>15.87333333333334</v>
-      </c>
+        <v>21000</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>15.89833333333332</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>15.9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,24 +1384,27 @@
         <v>15.9</v>
       </c>
       <c r="F25" t="n">
-        <v>29799</v>
-      </c>
-      <c r="G25" t="n">
-        <v>15.88666666666668</v>
-      </c>
+        <v>4010.4959</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>15.89666666666665</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,24 +1425,27 @@
         <v>15.9</v>
       </c>
       <c r="F26" t="n">
-        <v>67500</v>
-      </c>
-      <c r="G26" t="n">
-        <v>15.89333333333334</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>15.89333333333331</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,33 +1457,32 @@
         <v>15.9</v>
       </c>
       <c r="C27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D27" t="n">
         <v>15.9</v>
       </c>
       <c r="E27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F27" t="n">
-        <v>54300</v>
-      </c>
-      <c r="G27" t="n">
-        <v>15.89333333333334</v>
-      </c>
+        <v>14760.133</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>15.88999999999998</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>15.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1429,33 +1494,36 @@
         <v>15.8</v>
       </c>
       <c r="C28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E28" t="n">
         <v>15.8</v>
       </c>
       <c r="F28" t="n">
-        <v>35400</v>
-      </c>
-      <c r="G28" t="n">
-        <v>15.89333333333334</v>
-      </c>
+        <v>15176.6779</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>15.88666666666665</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1532,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C29" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D29" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E29" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F29" t="n">
-        <v>281594.765</v>
-      </c>
-      <c r="G29" t="n">
-        <v>15.88666666666667</v>
-      </c>
+        <v>14500</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>15.88166666666665</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,24 +1585,29 @@
         <v>15.8</v>
       </c>
       <c r="F30" t="n">
-        <v>39100</v>
+        <v>53926.089</v>
       </c>
       <c r="G30" t="n">
-        <v>15.88000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H30" t="n">
-        <v>15.87833333333331</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1616,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
         <v>15.8</v>
       </c>
-      <c r="C31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>408887</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15.86000000000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15.86999999999998</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="K31" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1659,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C32" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D32" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E32" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F32" t="n">
-        <v>10000</v>
+        <v>3840</v>
       </c>
       <c r="G32" t="n">
-        <v>15.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>15.86166666666665</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1702,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C33" t="n">
         <v>15.7</v>
       </c>
       <c r="D33" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E33" t="n">
         <v>15.7</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>16994</v>
       </c>
       <c r="G33" t="n">
-        <v>15.82</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="H33" t="n">
-        <v>15.85999999999998</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1745,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C34" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D34" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F34" t="n">
-        <v>10000</v>
+        <v>41800</v>
       </c>
       <c r="G34" t="n">
-        <v>15.79333333333334</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>15.85333333333332</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1788,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C35" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="D35" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="F35" t="n">
-        <v>200000</v>
+        <v>3840</v>
       </c>
       <c r="G35" t="n">
-        <v>15.75333333333334</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>15.84499999999998</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1831,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C36" t="n">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="D36" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E36" t="n">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="F36" t="n">
-        <v>140726.0343</v>
+        <v>2993.5849</v>
       </c>
       <c r="G36" t="n">
-        <v>15.71333333333334</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>15.83499999999998</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1874,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C37" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D37" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>32397.9039</v>
       </c>
       <c r="G37" t="n">
-        <v>15.68666666666667</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="H37" t="n">
-        <v>15.82999999999998</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1917,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="C38" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="D38" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="E38" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="F38" t="n">
-        <v>3740.3923</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>15.64666666666667</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>15.82166666666665</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,37 +1960,42 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C39" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D39" t="n">
         <v>15.7</v>
       </c>
       <c r="E39" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="F39" t="n">
-        <v>28907.7419</v>
+        <v>12318.0584</v>
       </c>
       <c r="G39" t="n">
-        <v>15.61333333333334</v>
+        <v>-9.090909090909179</v>
       </c>
       <c r="H39" t="n">
-        <v>15.81333333333331</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>1</v>
+        <v>15.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0.9824213836477986</v>
       </c>
     </row>
     <row r="40">
@@ -1882,36 +2003,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="D40" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E40" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="F40" t="n">
-        <v>32100</v>
+        <v>300</v>
       </c>
       <c r="G40" t="n">
-        <v>15.57333333333334</v>
+        <v>-9.090909090909003</v>
       </c>
       <c r="H40" t="n">
-        <v>15.80333333333332</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +2046,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C41" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D41" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E41" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F41" t="n">
-        <v>9900</v>
+        <v>543</v>
       </c>
       <c r="G41" t="n">
-        <v>15.54666666666667</v>
+        <v>-9.090909090909003</v>
       </c>
       <c r="H41" t="n">
-        <v>15.79666666666665</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15.8</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2085,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C42" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="D42" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="F42" t="n">
-        <v>4061</v>
+        <v>9157</v>
       </c>
       <c r="G42" t="n">
-        <v>15.52</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="H42" t="n">
-        <v>15.78833333333332</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2128,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C43" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D43" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E43" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F43" t="n">
-        <v>2220</v>
+        <v>2683.0271</v>
       </c>
       <c r="G43" t="n">
-        <v>15.5</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="H43" t="n">
-        <v>15.78166666666665</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2171,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C44" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D44" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E44" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F44" t="n">
-        <v>4440</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>15.48666666666667</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>15.77499999999998</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15.8</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2210,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C45" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D45" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E45" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F45" t="n">
-        <v>3610</v>
+        <v>643.6295</v>
       </c>
       <c r="G45" t="n">
-        <v>15.46666666666667</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="H45" t="n">
-        <v>15.76833333333332</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2253,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C46" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D46" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E46" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F46" t="n">
-        <v>14150</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>15.46666666666667</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="H46" t="n">
-        <v>15.76166666666665</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2296,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C47" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D47" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E47" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F47" t="n">
-        <v>16397.0129</v>
+        <v>32855.5592</v>
       </c>
       <c r="G47" t="n">
-        <v>15.47333333333334</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>15.75666666666665</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>15.9</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2335,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C48" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D48" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E48" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F48" t="n">
-        <v>3330</v>
+        <v>160</v>
       </c>
       <c r="G48" t="n">
-        <v>15.46666666666667</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="H48" t="n">
-        <v>15.75166666666665</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2378,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
-        <v>71656.3694</v>
+        <v>20329.8113</v>
       </c>
       <c r="G49" t="n">
-        <v>15.48</v>
+        <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>15.74833333333332</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2421,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C50" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D50" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E50" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>480.2868</v>
       </c>
       <c r="G50" t="n">
-        <v>15.49333333333334</v>
+        <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>15.74333333333332</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>16</v>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2460,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>64463.9803</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>15.51333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>15.73833333333332</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K51" t="n">
+        <v>16</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2503,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F52" t="n">
-        <v>40332.2837</v>
+        <v>11555</v>
       </c>
       <c r="G52" t="n">
-        <v>15.50666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>15.73166666666665</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>16</v>
+      </c>
+      <c r="K52" t="n">
+        <v>16</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2546,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C53" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D53" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E53" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F53" t="n">
-        <v>9517</v>
+        <v>3000</v>
       </c>
       <c r="G53" t="n">
-        <v>15.52</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>15.72666666666666</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K53" t="n">
+        <v>16</v>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2585,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C54" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D54" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E54" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F54" t="n">
-        <v>3096.217948717949</v>
+        <v>29799</v>
       </c>
       <c r="G54" t="n">
-        <v>15.53333333333333</v>
+        <v>20</v>
       </c>
       <c r="H54" t="n">
-        <v>15.72166666666666</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K54" t="n">
+        <v>16</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2628,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C55" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D55" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E55" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F55" t="n">
-        <v>4800</v>
+        <v>67500</v>
       </c>
       <c r="G55" t="n">
-        <v>15.55333333333333</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>15.71666666666666</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K55" t="n">
+        <v>16</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2671,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C56" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D56" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E56" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F56" t="n">
-        <v>4330</v>
+        <v>54300</v>
       </c>
       <c r="G56" t="n">
-        <v>15.55333333333333</v>
+        <v>-20</v>
       </c>
       <c r="H56" t="n">
-        <v>15.70999999999999</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K56" t="n">
+        <v>16</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2714,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C57" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D57" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E57" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F57" t="n">
-        <v>9108.9228</v>
+        <v>35400</v>
       </c>
       <c r="G57" t="n">
-        <v>15.56</v>
+        <v>-20</v>
       </c>
       <c r="H57" t="n">
-        <v>15.70333333333332</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>16</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2757,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C58" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D58" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E58" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F58" t="n">
-        <v>908.782</v>
+        <v>281594.765</v>
       </c>
       <c r="G58" t="n">
-        <v>15.56666666666666</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="H58" t="n">
-        <v>15.69833333333333</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>16</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2800,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C59" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="D59" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E59" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="F59" t="n">
-        <v>368444.7464</v>
+        <v>39100</v>
       </c>
       <c r="G59" t="n">
-        <v>15.55333333333333</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="H59" t="n">
-        <v>15.68833333333333</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>16</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2843,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C60" t="n">
         <v>15.5</v>
       </c>
       <c r="D60" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E60" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F60" t="n">
-        <v>3000</v>
+        <v>408887</v>
       </c>
       <c r="G60" t="n">
-        <v>15.55333333333333</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="H60" t="n">
-        <v>15.68166666666666</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>16</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,7 +2886,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C61" t="n">
         <v>15.5</v>
@@ -2689,27 +2895,32 @@
         <v>15.6</v>
       </c>
       <c r="E61" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F61" t="n">
-        <v>6003</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>15.55333333333333</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="H61" t="n">
-        <v>15.67666666666666</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>16</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2929,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C62" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D62" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E62" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F62" t="n">
-        <v>5470</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>15.54</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="H62" t="n">
-        <v>15.66833333333333</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>16</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2972,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C63" t="n">
         <v>15.5</v>
       </c>
       <c r="D63" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E63" t="n">
         <v>15.5</v>
       </c>
       <c r="F63" t="n">
-        <v>9449</v>
+        <v>10000</v>
       </c>
       <c r="G63" t="n">
-        <v>15.53333333333333</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="H63" t="n">
-        <v>15.66166666666666</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K63" t="n">
+        <v>16</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +3015,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C64" t="n">
         <v>15.4</v>
       </c>
       <c r="D64" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E64" t="n">
         <v>15.4</v>
       </c>
       <c r="F64" t="n">
-        <v>300</v>
+        <v>200000</v>
       </c>
       <c r="G64" t="n">
-        <v>15.51333333333333</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="H64" t="n">
-        <v>15.65666666666666</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>16</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +3058,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C65" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D65" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E65" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F65" t="n">
-        <v>1420.8441</v>
+        <v>140726.0343</v>
       </c>
       <c r="G65" t="n">
-        <v>15.5</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="H65" t="n">
-        <v>15.64833333333332</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>16</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +3101,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C66" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D66" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E66" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F66" t="n">
-        <v>6944.6785</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>15.48666666666667</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="H66" t="n">
-        <v>15.63999999999999</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>16</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,25 +3156,30 @@
         <v>15.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4180</v>
+        <v>3740.3923</v>
       </c>
       <c r="G67" t="n">
-        <v>15.48</v>
+        <v>-19.99999999999995</v>
       </c>
       <c r="H67" t="n">
-        <v>15.63166666666666</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
-        <v>1</v>
+        <v>15.6</v>
+      </c>
+      <c r="K67" t="n">
+        <v>16</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9575</v>
       </c>
     </row>
     <row r="68">
@@ -2946,36 +3187,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C68" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D68" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="E68" t="n">
         <v>15.3</v>
       </c>
       <c r="F68" t="n">
-        <v>25248.1116</v>
+        <v>28907.7419</v>
       </c>
       <c r="G68" t="n">
-        <v>15.46</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="H68" t="n">
-        <v>15.62499999999999</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3230,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C69" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D69" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E69" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F69" t="n">
-        <v>11906.6946</v>
+        <v>32100</v>
       </c>
       <c r="G69" t="n">
-        <v>15.44666666666667</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>15.61666666666666</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3273,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C70" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D70" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E70" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F70" t="n">
-        <v>11130</v>
+        <v>9900</v>
       </c>
       <c r="G70" t="n">
-        <v>15.43333333333334</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>15.61166666666666</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,24 +3328,29 @@
         <v>15.4</v>
       </c>
       <c r="F71" t="n">
-        <v>98708.18180000001</v>
+        <v>4061</v>
       </c>
       <c r="G71" t="n">
-        <v>15.42666666666667</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="H71" t="n">
-        <v>15.60499999999999</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3359,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C72" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D72" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E72" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F72" t="n">
-        <v>20000</v>
+        <v>2220</v>
       </c>
       <c r="G72" t="n">
-        <v>15.42000000000001</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>15.59833333333332</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3402,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C73" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D73" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E73" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F73" t="n">
-        <v>10000</v>
+        <v>4440</v>
       </c>
       <c r="G73" t="n">
-        <v>15.39333333333334</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H73" t="n">
-        <v>15.58833333333333</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3445,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C74" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D74" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E74" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>3610</v>
       </c>
       <c r="G74" t="n">
-        <v>15.38666666666667</v>
+        <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>15.57833333333333</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3488,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C75" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D75" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E75" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F75" t="n">
-        <v>4574.6266</v>
+        <v>14150</v>
       </c>
       <c r="G75" t="n">
-        <v>15.36666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H75" t="n">
-        <v>15.56666666666666</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3531,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C76" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D76" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E76" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F76" t="n">
-        <v>20199.0551</v>
+        <v>16397.0129</v>
       </c>
       <c r="G76" t="n">
-        <v>15.34666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>15.55666666666666</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3574,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C77" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="D77" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E77" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F77" t="n">
-        <v>46896.7168</v>
+        <v>3330</v>
       </c>
       <c r="G77" t="n">
-        <v>15.32666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>15.54333333333333</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K77" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3617,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C78" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D78" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="E78" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F78" t="n">
-        <v>33798.2198</v>
+        <v>71656.3694</v>
       </c>
       <c r="G78" t="n">
-        <v>15.3</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H78" t="n">
-        <v>15.53</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K78" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,37 +3660,42 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C79" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D79" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E79" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F79" t="n">
-        <v>11000</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>15.29333333333333</v>
+        <v>20</v>
       </c>
       <c r="H79" t="n">
-        <v>15.52</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
-        <v>1</v>
+        <v>15.7</v>
+      </c>
+      <c r="K79" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1.014607843137255</v>
       </c>
     </row>
     <row r="80">
@@ -3402,36 +3703,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C80" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D80" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E80" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F80" t="n">
-        <v>70</v>
+        <v>64463.9803</v>
       </c>
       <c r="G80" t="n">
-        <v>15.28666666666667</v>
+        <v>50</v>
       </c>
       <c r="H80" t="n">
-        <v>15.50833333333333</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K80" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3746,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C81" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D81" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E81" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F81" t="n">
-        <v>25373.5769</v>
+        <v>40332.2837</v>
       </c>
       <c r="G81" t="n">
-        <v>15.27333333333334</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>15.49666666666666</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3789,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C82" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D82" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E82" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F82" t="n">
-        <v>6000</v>
+        <v>9517</v>
       </c>
       <c r="G82" t="n">
-        <v>15.27333333333334</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>15.48666666666666</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3832,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C83" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D83" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E83" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F83" t="n">
-        <v>30504</v>
+        <v>3096.217948717949</v>
       </c>
       <c r="G83" t="n">
-        <v>15.27333333333334</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>15.475</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3875,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C84" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D84" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E84" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F84" t="n">
-        <v>5760</v>
+        <v>4800</v>
       </c>
       <c r="G84" t="n">
-        <v>15.26666666666667</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
-        <v>15.465</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K84" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3918,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C85" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D85" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E85" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F85" t="n">
-        <v>13300</v>
+        <v>4330</v>
       </c>
       <c r="G85" t="n">
-        <v>15.26</v>
+        <v>-20</v>
       </c>
       <c r="H85" t="n">
-        <v>15.45499999999999</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K85" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3961,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C86" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D86" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E86" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F86" t="n">
-        <v>24126.0625</v>
+        <v>9108.9228</v>
       </c>
       <c r="G86" t="n">
-        <v>15.24666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H86" t="n">
-        <v>15.44333333333333</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +4004,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C87" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D87" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E87" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F87" t="n">
-        <v>20690</v>
+        <v>908.782</v>
       </c>
       <c r="G87" t="n">
-        <v>15.24</v>
+        <v>-20</v>
       </c>
       <c r="H87" t="n">
-        <v>15.435</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,10 +4047,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C88" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D88" t="n">
         <v>15.4</v>
@@ -3718,24 +4059,29 @@
         <v>15.3</v>
       </c>
       <c r="F88" t="n">
-        <v>6000</v>
+        <v>368444.7464</v>
       </c>
       <c r="G88" t="n">
-        <v>15.25333333333334</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="H88" t="n">
-        <v>15.42833333333333</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K88" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3747,33 +4093,38 @@
         <v>15.4</v>
       </c>
       <c r="C89" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D89" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E89" t="n">
         <v>15.4</v>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G89" t="n">
-        <v>15.26666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H89" t="n">
-        <v>15.42333333333333</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3785,33 +4136,38 @@
         <v>15.4</v>
       </c>
       <c r="C90" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D90" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E90" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F90" t="n">
-        <v>7010</v>
+        <v>6003</v>
       </c>
       <c r="G90" t="n">
-        <v>15.28</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>15.41666666666666</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3823,33 +4179,38 @@
         <v>15.4</v>
       </c>
       <c r="C91" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D91" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E91" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F91" t="n">
-        <v>51704</v>
+        <v>5470</v>
       </c>
       <c r="G91" t="n">
-        <v>15.30000000000001</v>
+        <v>-25</v>
       </c>
       <c r="H91" t="n">
-        <v>15.41666666666666</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,37 +4219,42 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C92" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D92" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E92" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F92" t="n">
-        <v>248596.0028</v>
+        <v>9449</v>
       </c>
       <c r="G92" t="n">
-        <v>15.31333333333334</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H92" t="n">
-        <v>15.41333333333333</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
-        <v>1</v>
+        <v>15.4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0.9822611464968153</v>
       </c>
     </row>
     <row r="93">
@@ -3896,36 +4262,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C93" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D93" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E93" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F93" t="n">
-        <v>210400</v>
+        <v>300</v>
       </c>
       <c r="G93" t="n">
-        <v>15.32666666666668</v>
+        <v>-20</v>
       </c>
       <c r="H93" t="n">
-        <v>15.40666666666666</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +4305,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C94" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D94" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E94" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F94" t="n">
-        <v>3600</v>
+        <v>1420.8441</v>
       </c>
       <c r="G94" t="n">
-        <v>15.32666666666668</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H94" t="n">
-        <v>15.40333333333333</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +4348,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C95" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D95" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E95" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F95" t="n">
-        <v>10100</v>
+        <v>6944.6785</v>
       </c>
       <c r="G95" t="n">
-        <v>15.32666666666668</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H95" t="n">
-        <v>15.40166666666666</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +4387,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C96" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D96" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E96" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F96" t="n">
-        <v>238268</v>
+        <v>4180</v>
       </c>
       <c r="G96" t="n">
-        <v>15.34666666666667</v>
+        <v>-25</v>
       </c>
       <c r="H96" t="n">
-        <v>15.40499999999999</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K96" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +4430,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C97" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D97" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E97" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F97" t="n">
-        <v>100</v>
+        <v>25248.1116</v>
       </c>
       <c r="G97" t="n">
-        <v>15.35333333333334</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>15.40333333333333</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K97" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4473,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C98" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D98" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E98" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F98" t="n">
-        <v>2836.7741</v>
+        <v>11906.6946</v>
       </c>
       <c r="G98" t="n">
-        <v>15.36666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H98" t="n">
-        <v>15.40499999999999</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4512,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C99" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D99" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E99" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>11130</v>
       </c>
       <c r="G99" t="n">
-        <v>15.38000000000001</v>
+        <v>-20</v>
       </c>
       <c r="H99" t="n">
-        <v>15.40666666666666</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4555,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C100" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D100" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E100" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F100" t="n">
-        <v>196.2257</v>
+        <v>98708.18180000001</v>
       </c>
       <c r="G100" t="n">
-        <v>15.39333333333334</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>15.40999999999999</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4598,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C101" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D101" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E101" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F101" t="n">
-        <v>5649.7774</v>
+        <v>20000</v>
       </c>
       <c r="G101" t="n">
-        <v>15.41333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>15.40999999999999</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4637,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C102" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D102" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E102" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F102" t="n">
-        <v>7113.4629</v>
+        <v>10000</v>
       </c>
       <c r="G102" t="n">
-        <v>15.42000000000001</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="H102" t="n">
-        <v>15.40999999999999</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4680,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C103" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D103" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E103" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F103" t="n">
-        <v>3896.103896103896</v>
+        <v>10000</v>
       </c>
       <c r="G103" t="n">
-        <v>15.42000000000001</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="H103" t="n">
-        <v>15.40833333333333</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4723,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C104" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D104" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E104" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F104" t="n">
-        <v>3672.769</v>
+        <v>4574.6266</v>
       </c>
       <c r="G104" t="n">
-        <v>15.42000000000001</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="H104" t="n">
-        <v>15.40666666666666</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4766,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C105" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D105" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E105" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F105" t="n">
-        <v>76987</v>
+        <v>20199.0551</v>
       </c>
       <c r="G105" t="n">
-        <v>15.42000000000001</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="H105" t="n">
-        <v>15.40499999999999</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4809,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C106" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D106" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E106" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F106" t="n">
-        <v>95586</v>
+        <v>46896.7168</v>
       </c>
       <c r="G106" t="n">
-        <v>15.41333333333334</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="H106" t="n">
-        <v>15.40333333333333</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4852,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C107" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D107" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E107" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F107" t="n">
-        <v>64.93000000000001</v>
+        <v>33798.2198</v>
       </c>
       <c r="G107" t="n">
-        <v>15.42000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H107" t="n">
-        <v>15.39999999999999</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,7 +4895,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C108" t="n">
         <v>15.3</v>
@@ -4475,27 +4904,32 @@
         <v>15.3</v>
       </c>
       <c r="E108" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F108" t="n">
-        <v>10980.3921</v>
+        <v>11000</v>
       </c>
       <c r="G108" t="n">
-        <v>15.42000000000001</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="H108" t="n">
-        <v>15.39499999999999</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4938,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C109" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D109" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E109" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F109" t="n">
-        <v>5952.8134</v>
+        <v>70</v>
       </c>
       <c r="G109" t="n">
-        <v>15.41333333333334</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="H109" t="n">
-        <v>15.38666666666666</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4981,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C110" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D110" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E110" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F110" t="n">
-        <v>27638.783</v>
+        <v>25373.5769</v>
       </c>
       <c r="G110" t="n">
-        <v>15.41333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>15.38166666666666</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K110" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +5024,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
         <v>15.2</v>
       </c>
-      <c r="C111" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D111" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>64941.8427</v>
-      </c>
-      <c r="G111" t="n">
-        <v>15.40666666666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>15.37833333333332</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="K111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +5067,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C112" t="n">
         <v>15.3</v>
       </c>
       <c r="D112" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E112" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F112" t="n">
-        <v>25006.0044</v>
+        <v>30504</v>
       </c>
       <c r="G112" t="n">
-        <v>15.39333333333334</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="H112" t="n">
-        <v>15.37499999999999</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K112" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,37 +5110,42 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C113" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D113" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E113" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F113" t="n">
-        <v>27619.1752</v>
+        <v>5760</v>
       </c>
       <c r="G113" t="n">
-        <v>15.36666666666667</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="H113" t="n">
-        <v>15.36666666666665</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
-        <v>1</v>
+        <v>15.3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>0.9885064935064936</v>
       </c>
     </row>
     <row r="114">
@@ -4694,40 +5153,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C114" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D114" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E114" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F114" t="n">
-        <v>4088.7788</v>
+        <v>13300</v>
       </c>
       <c r="G114" t="n">
-        <v>15.34666666666667</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="H114" t="n">
-        <v>15.35999999999999</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="K114" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4739,41 +5199,38 @@
         <v>15.3</v>
       </c>
       <c r="C115" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D115" t="n">
         <v>15.3</v>
       </c>
       <c r="E115" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F115" t="n">
-        <v>2570</v>
+        <v>24126.0625</v>
       </c>
       <c r="G115" t="n">
-        <v>15.33333333333334</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="H115" t="n">
-        <v>15.35499999999999</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="K115" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L115" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,38 +5245,35 @@
         <v>15.3</v>
       </c>
       <c r="D116" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E116" t="n">
         <v>15.3</v>
       </c>
       <c r="F116" t="n">
-        <v>2570</v>
+        <v>20690</v>
       </c>
       <c r="G116" t="n">
-        <v>15.32000000000001</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="H116" t="n">
-        <v>15.35166666666665</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="K116" t="n">
         <v>15.3</v>
       </c>
-      <c r="L116" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,37 +5285,38 @@
         <v>15.3</v>
       </c>
       <c r="C117" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D117" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E117" t="n">
         <v>15.3</v>
       </c>
       <c r="F117" t="n">
-        <v>10280</v>
+        <v>6000</v>
       </c>
       <c r="G117" t="n">
-        <v>15.31333333333334</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="H117" t="n">
-        <v>15.34833333333332</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="K117" t="n">
         <v>15.3</v>
       </c>
-      <c r="L117" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,44 +5325,41 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F118" t="n">
-        <v>7710</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="n">
-        <v>15.30666666666667</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="H118" t="n">
-        <v>15.34333333333332</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="K118" t="n">
         <v>15.3</v>
       </c>
-      <c r="L118" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,44 +5368,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C119" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D119" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E119" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F119" t="n">
-        <v>13914.4243</v>
+        <v>7010</v>
       </c>
       <c r="G119" t="n">
-        <v>15.29333333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>15.34166666666665</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="K119" t="n">
         <v>15.3</v>
       </c>
-      <c r="L119" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,44 +5411,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C120" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D120" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E120" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F120" t="n">
-        <v>7991</v>
+        <v>51704</v>
       </c>
       <c r="G120" t="n">
-        <v>15.29333333333334</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="H120" t="n">
-        <v>15.33999999999999</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="K120" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L120" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,44 +5454,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C121" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D121" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E121" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F121" t="n">
-        <v>49900</v>
+        <v>248596.0028</v>
       </c>
       <c r="G121" t="n">
-        <v>15.29333333333334</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>15.33833333333332</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="K121" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L121" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,41 +5500,38 @@
         <v>15.3</v>
       </c>
       <c r="C122" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D122" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E122" t="n">
         <v>15.3</v>
       </c>
       <c r="F122" t="n">
-        <v>70290</v>
+        <v>210400</v>
       </c>
       <c r="G122" t="n">
-        <v>15.29333333333334</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>15.33833333333332</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="K122" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L122" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,44 +5540,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C123" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D123" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E123" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F123" t="n">
-        <v>11245.6235</v>
+        <v>3600</v>
       </c>
       <c r="G123" t="n">
-        <v>15.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>15.33666666666665</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="K123" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L123" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,41 +5586,38 @@
         <v>15.3</v>
       </c>
       <c r="C124" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D124" t="n">
         <v>15.3</v>
       </c>
       <c r="E124" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F124" t="n">
-        <v>84896</v>
+        <v>10100</v>
       </c>
       <c r="G124" t="n">
-        <v>15.30000000000001</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="H124" t="n">
-        <v>15.33333333333332</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="K124" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L124" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5195,41 +5629,38 @@
         <v>15.3</v>
       </c>
       <c r="C125" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D125" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E125" t="n">
         <v>15.3</v>
       </c>
       <c r="F125" t="n">
-        <v>147874.7342</v>
+        <v>238268</v>
       </c>
       <c r="G125" t="n">
-        <v>15.32</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>15.33666666666665</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="K125" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L125" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,45 +5669,42 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C126" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D126" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E126" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F126" t="n">
-        <v>324.2551</v>
+        <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>15.32</v>
+        <v>20</v>
       </c>
       <c r="H126" t="n">
-        <v>15.33666666666665</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="K126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L126" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
-        <v>1</v>
+        <v>15.3</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1.008071895424837</v>
       </c>
     </row>
     <row r="127">
@@ -5296,30 +5724,29 @@
         <v>15.5</v>
       </c>
       <c r="F127" t="n">
-        <v>12</v>
+        <v>2836.7741</v>
       </c>
       <c r="G127" t="n">
-        <v>15.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="H127" t="n">
-        <v>15.33833333333332</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,42 +5755,41 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C128" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D128" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E128" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F128" t="n">
-        <v>117400</v>
+        <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>15.39333333333334</v>
+        <v>20</v>
       </c>
       <c r="H128" t="n">
-        <v>15.34999999999999</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,42 +5798,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C129" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D129" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E129" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F129" t="n">
-        <v>35874.8625</v>
+        <v>196.2257</v>
       </c>
       <c r="G129" t="n">
-        <v>15.44666666666667</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>15.35999999999999</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,42 +5837,41 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C130" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="D130" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="E130" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F130" t="n">
-        <v>495210.093</v>
+        <v>5649.7774</v>
       </c>
       <c r="G130" t="n">
-        <v>15.52</v>
+        <v>100</v>
       </c>
       <c r="H130" t="n">
-        <v>15.37666666666666</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5460,42 +5880,41 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="C131" t="n">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="D131" t="n">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="E131" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="F131" t="n">
-        <v>214300</v>
+        <v>7113.4629</v>
       </c>
       <c r="G131" t="n">
-        <v>15.6</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>15.39499999999999</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,42 +5923,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="C132" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="D132" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="E132" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="F132" t="n">
-        <v>2789.2987</v>
+        <v>3896.103896103896</v>
       </c>
       <c r="G132" t="n">
-        <v>15.67333333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>15.41166666666666</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,42 +5962,41 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C133" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D133" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E133" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F133" t="n">
-        <v>75400.8023</v>
+        <v>3672.769</v>
       </c>
       <c r="G133" t="n">
-        <v>15.73333333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>15.42833333333332</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,42 +6005,41 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="C134" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D134" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="E134" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="F134" t="n">
-        <v>21650</v>
+        <v>76987</v>
       </c>
       <c r="G134" t="n">
-        <v>15.8</v>
+        <v>-100</v>
       </c>
       <c r="H134" t="n">
-        <v>15.44499999999999</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,42 +6048,41 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="C135" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="D135" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="E135" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="F135" t="n">
-        <v>1430</v>
+        <v>95586</v>
       </c>
       <c r="G135" t="n">
-        <v>15.86</v>
+        <v>-100</v>
       </c>
       <c r="H135" t="n">
-        <v>15.46333333333332</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,42 +6091,41 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="C136" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="D136" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="E136" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F136" t="n">
-        <v>18501.3496</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>15.92</v>
+        <v>-100</v>
       </c>
       <c r="H136" t="n">
-        <v>15.48166666666665</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5724,42 +6134,41 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="C137" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="D137" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="E137" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="F137" t="n">
-        <v>22000</v>
+        <v>10980.3921</v>
       </c>
       <c r="G137" t="n">
-        <v>15.98666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H137" t="n">
-        <v>15.50333333333332</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,42 +6177,41 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C138" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="D138" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="E138" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="F138" t="n">
-        <v>18480</v>
+        <v>5952.8134</v>
       </c>
       <c r="G138" t="n">
-        <v>16.06000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H138" t="n">
-        <v>15.52666666666665</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,42 +6220,41 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="C139" t="n">
-        <v>16.6</v>
+        <v>15.3</v>
       </c>
       <c r="D139" t="n">
-        <v>16.6</v>
+        <v>15.3</v>
       </c>
       <c r="E139" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="F139" t="n">
-        <v>296339.0165</v>
+        <v>27638.783</v>
       </c>
       <c r="G139" t="n">
-        <v>16.15333333333334</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="H139" t="n">
-        <v>15.54833333333332</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,42 +6263,41 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="C140" t="n">
-        <v>16.7</v>
+        <v>15.4</v>
       </c>
       <c r="D140" t="n">
-        <v>16.7</v>
+        <v>15.4</v>
       </c>
       <c r="E140" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="F140" t="n">
-        <v>66861.5474</v>
+        <v>64941.8427</v>
       </c>
       <c r="G140" t="n">
-        <v>16.22666666666667</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>15.57166666666665</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5900,42 +6306,41 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C141" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="D141" t="n">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="E141" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F141" t="n">
-        <v>66550.8916</v>
+        <v>25006.0044</v>
       </c>
       <c r="G141" t="n">
-        <v>16.28666666666667</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="H141" t="n">
-        <v>15.58999999999999</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,42 +6349,41 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C142" t="n">
-        <v>16.4</v>
+        <v>15.1</v>
       </c>
       <c r="D142" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E142" t="n">
-        <v>16.4</v>
+        <v>15.1</v>
       </c>
       <c r="F142" t="n">
-        <v>41176.4646</v>
+        <v>27619.1752</v>
       </c>
       <c r="G142" t="n">
-        <v>16.34666666666667</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="H142" t="n">
-        <v>15.60666666666665</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,42 +6392,41 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C143" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="D143" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E143" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F143" t="n">
-        <v>76606.58530000001</v>
+        <v>4088.7788</v>
       </c>
       <c r="G143" t="n">
-        <v>16.36666666666667</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="H143" t="n">
-        <v>15.62333333333332</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,42 +6435,41 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="C144" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="D144" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="E144" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="F144" t="n">
-        <v>3086.4197</v>
+        <v>2570</v>
       </c>
       <c r="G144" t="n">
-        <v>16.38</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="H144" t="n">
-        <v>15.63833333333332</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,43 +6478,42 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C145" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="D145" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="E145" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F145" t="n">
-        <v>486</v>
+        <v>2570</v>
       </c>
       <c r="G145" t="n">
-        <v>16.36</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="H145" t="n">
-        <v>15.65166666666665</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
-        <v>1</v>
+        <v>15.3</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>0.9885064935064936</v>
       </c>
     </row>
     <row r="146">
@@ -6120,42 +6521,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C146" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="D146" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="E146" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F146" t="n">
-        <v>10000</v>
+        <v>10280</v>
       </c>
       <c r="G146" t="n">
-        <v>16.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>15.66666666666666</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,42 +6560,41 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C147" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="D147" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="E147" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F147" t="n">
-        <v>109859.0309</v>
+        <v>7710</v>
       </c>
       <c r="G147" t="n">
-        <v>16.32</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="H147" t="n">
-        <v>15.68166666666666</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,42 +6603,41 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="C148" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="D148" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="E148" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="F148" t="n">
-        <v>14575.4938</v>
+        <v>13914.4243</v>
       </c>
       <c r="G148" t="n">
-        <v>16.32</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="H148" t="n">
-        <v>15.69499999999999</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,42 +6646,41 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="C149" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D149" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E149" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="F149" t="n">
-        <v>7129.037</v>
+        <v>7991</v>
       </c>
       <c r="G149" t="n">
-        <v>16.32</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>15.70833333333333</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,43 +6689,42 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C150" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D150" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E150" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F150" t="n">
-        <v>2151.203</v>
+        <v>49900</v>
       </c>
       <c r="G150" t="n">
-        <v>16.31333333333334</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="H150" t="n">
-        <v>15.72166666666666</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
-        <v>1.053823529411765</v>
+        <v>15.4</v>
+      </c>
+      <c r="K150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -6340,36 +6732,41 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C151" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D151" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E151" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>70290</v>
       </c>
       <c r="G151" t="n">
-        <v>16.3</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="H151" t="n">
-        <v>15.73166666666666</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6378,36 +6775,41 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C152" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D152" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E152" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F152" t="n">
-        <v>6930</v>
+        <v>11245.6235</v>
       </c>
       <c r="G152" t="n">
-        <v>16.28666666666667</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="H152" t="n">
-        <v>15.74666666666666</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K152" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,36 +6818,41 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C153" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="D153" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="E153" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="F153" t="n">
-        <v>3582.006</v>
+        <v>84896</v>
       </c>
       <c r="G153" t="n">
-        <v>16.26</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="H153" t="n">
-        <v>15.76</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K153" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,36 +6861,41 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="C154" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="D154" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="E154" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="F154" t="n">
-        <v>29010</v>
+        <v>147874.7342</v>
       </c>
       <c r="G154" t="n">
-        <v>16.23333333333333</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="H154" t="n">
-        <v>15.775</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K154" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6492,36 +6904,41 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C155" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D155" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E155" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F155" t="n">
-        <v>549.8148</v>
+        <v>324.2551</v>
       </c>
       <c r="G155" t="n">
-        <v>16.2</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="H155" t="n">
-        <v>15.79</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K155" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6530,36 +6947,1284 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12</v>
+      </c>
+      <c r="G156" t="n">
+        <v>16.66666666666657</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K156" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>16</v>
+      </c>
+      <c r="D157" t="n">
+        <v>16</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>117400</v>
+      </c>
+      <c r="G157" t="n">
+        <v>50</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>16</v>
+      </c>
+      <c r="C158" t="n">
+        <v>16</v>
+      </c>
+      <c r="D158" t="n">
+        <v>16</v>
+      </c>
+      <c r="E158" t="n">
+        <v>16</v>
+      </c>
+      <c r="F158" t="n">
+        <v>35874.8625</v>
+      </c>
+      <c r="G158" t="n">
+        <v>42.85714285714282</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>16</v>
+      </c>
+      <c r="K158" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>16</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>16</v>
+      </c>
+      <c r="F159" t="n">
+        <v>495210.093</v>
+      </c>
+      <c r="G159" t="n">
+        <v>55.55555555555549</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>16</v>
+      </c>
+      <c r="K159" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>214300</v>
+      </c>
+      <c r="G160" t="n">
+        <v>57.89473684210523</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K160" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1.07343137254902</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2789.2987</v>
+      </c>
+      <c r="G161" t="n">
+        <v>49.99999999999986</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K161" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>16.2</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C162" t="n">
         <v>16.2</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D162" t="n">
         <v>16.2</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E162" t="n">
         <v>16.2</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F162" t="n">
+        <v>75400.8023</v>
+      </c>
+      <c r="G162" t="n">
+        <v>50</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K162" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21650</v>
+      </c>
+      <c r="G163" t="n">
+        <v>37.49999999999999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G164" t="n">
+        <v>59.99999999999995</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>18501.3496</v>
+      </c>
+      <c r="G165" t="n">
+        <v>57.1428571428571</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>39.99999999999986</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>18480</v>
+      </c>
+      <c r="G167" t="n">
+        <v>45.4545454545454</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K167" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>296339.0165</v>
+      </c>
+      <c r="G168" t="n">
+        <v>25.00000000000022</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K168" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>66861.5474</v>
+      </c>
+      <c r="G169" t="n">
+        <v>24.99999999999989</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K169" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>66550.8916</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-9.090909090908914</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K170" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>41176.4646</v>
+      </c>
+      <c r="G171" t="n">
+        <v>20</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>76606.58530000001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>9.090909090909268</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K172" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3086.4197</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-9.090909090909268</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K173" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>486</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-16.66666666666671</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K174" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>0.9707575757575758</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-27.27272727272715</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>109859.0309</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-27.27272727272756</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>14575.4938</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-40.00000000000064</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7129.037</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-55.55555555555608</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K178" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2151.203</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-20.00000000000057</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K179" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>200</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-60.00000000000028</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K180" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>6930</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-20.00000000000057</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3582.006</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K182" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>29010</v>
+      </c>
+      <c r="G183" t="n">
+        <v>20</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>549.8148</v>
+      </c>
+      <c r="G184" t="n">
+        <v>20</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K184" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F185" t="n">
         <v>16117.2364</v>
       </c>
-      <c r="G156" t="n">
-        <v>16.19333333333334</v>
-      </c>
-      <c r="H156" t="n">
-        <v>15.80166666666667</v>
-      </c>
-      <c r="I156" t="n">
+      <c r="G185" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>1</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K185" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>63127.88869999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>52918.22409999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-14459.89840000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-31453.89840000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>10346.10159999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>10346.10159999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-34693.49020000002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-14353.67890000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-14833.96570000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-14823.96570000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-14823.96570000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-72123.96570000003</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-72123.96570000003</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-353718.7307000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,19 @@
         <v>-1409742.0231</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4415,23 @@
         <v>-1410042.0231</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J122" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4458,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4497,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4530,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4563,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4596,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4629,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4662,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4695,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4728,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4761,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4794,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4827,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4860,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4891,19 @@
         <v>-1480280.1569</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4928,23 @@
         <v>-1469280.1569</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4969,23 @@
         <v>-1469280.1569</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5012,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5043,19 @@
         <v>-1488653.7338</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5080,23 @@
         <v>-1519157.7338</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J141" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5121,23 @@
         <v>-1519157.7338</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5162,19 @@
         <v>-1519157.7338</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5199,23 @@
         <v>-1543283.7963</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5240,23 @@
         <v>-1522593.7963</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5281,23 @@
         <v>-1516593.7963</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5322,23 @@
         <v>-1516593.7963</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5363,23 @@
         <v>-1516593.7963</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5404,23 @@
         <v>-1464889.7963</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J149" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5445,23 @@
         <v>-1713485.7991</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5486,23 @@
         <v>-1713485.7991</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +5527,23 @@
         <v>-1713485.7991</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J152" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5570,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5607,23 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5648,23 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6000,18 +5689,23 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5730,23 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J157" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5773,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5810,23 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J159" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5851,23 @@
         <v>-1482331.262</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J160" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5892,23 @@
         <v>-1482331.262</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J161" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5933,23 @@
         <v>-1482331.262</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5976,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +6015,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6324,18 +6052,23 @@
         <v>-1482331.262</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J165" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6095,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6134,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +6171,23 @@
         <v>-1471625.6845</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6214,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6253,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6540,24 +6290,23 @@
         <v>-1459309.0214</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J171" t="n">
         <v>15.3</v>
       </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6582,24 +6331,23 @@
         <v>-1455220.2426</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J172" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6624,24 +6372,23 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J173" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6666,24 +6413,23 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J174" t="n">
         <v>15.3</v>
       </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6708,24 +6454,23 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J175" t="n">
         <v>15.3</v>
       </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6750,24 +6495,23 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J176" t="n">
         <v>15.3</v>
       </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6792,24 +6536,23 @@
         <v>-1466564.6669</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J177" t="n">
         <v>15.3</v>
       </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6834,24 +6577,23 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6876,24 +6618,23 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="J179" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6918,24 +6659,23 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="J180" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6960,24 +6700,23 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="J181" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7002,24 +6741,23 @@
         <v>-1543469.6669</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="J182" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7044,24 +6782,23 @@
         <v>-1395594.9327</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J183" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7086,22 +6823,23 @@
         <v>-1395919.1878</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+        <v>15.6</v>
+      </c>
+      <c r="J184" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7126,24 +6864,23 @@
         <v>-1395907.1878</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="J185" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7168,22 +6905,23 @@
         <v>-1278507.1878</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+        <v>15.5</v>
+      </c>
+      <c r="J186" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7208,22 +6946,23 @@
         <v>-1278507.1878</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="J187" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7248,22 +6987,23 @@
         <v>-783297.0948</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="J188" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7290,20 +7030,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7330,20 +7069,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7370,20 +7108,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7410,20 +7147,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7450,20 +7186,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7490,20 +7225,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7530,20 +7264,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7570,20 +7303,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7610,20 +7342,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7650,20 +7381,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7690,20 +7420,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7730,20 +7459,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7770,20 +7498,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7810,20 +7537,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7850,20 +7576,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7890,20 +7615,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7930,20 +7654,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7970,20 +7693,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8010,20 +7732,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8050,20 +7771,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8088,22 +7808,21 @@
         <v>-237971.033</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8128,22 +7847,21 @@
         <v>-231041.033</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8168,22 +7886,21 @@
         <v>-234623.039</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8210,20 +7927,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8248,22 +7964,21 @@
         <v>-205613.039</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8290,22 +8005,21 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>63127.88869999998</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>66593.88869999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>65968.22409999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>52918.22409999998</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>9985.99789999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-18299.89840000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-14459.89840000002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-14459.89840000002</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-31453.89840000002</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>10346.10159999998</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>10346.10159999998</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>10346.10159999998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-22051.80230000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-22041.80230000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-34359.86070000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-34049.86070000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-34693.49020000002</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-14353.67890000002</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-14833.96570000002</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-14823.96570000002</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-14823.96570000002</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-72123.96570000003</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-72123.96570000003</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-353718.7307000001</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-314618.7307000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-723505.7307000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-723505.7307000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-723495.7307000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-733495.7307000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4378,14 +4378,10 @@
         <v>-1409742.0231</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4415,19 +4411,11 @@
         <v>-1410042.0231</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J122" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4459,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4891,14 +4873,10 @@
         <v>-1480280.1569</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
@@ -4928,19 +4906,11 @@
         <v>-1469280.1569</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4969,19 +4939,11 @@
         <v>-1469280.1569</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5005,7 @@
         <v>-1488653.7338</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>15.2</v>
@@ -5080,7 +5042,7 @@
         <v>-1519157.7338</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>15.4</v>
@@ -5121,11 +5083,9 @@
         <v>-1519157.7338</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>15.2</v>
       </c>
@@ -5162,14 +5122,10 @@
         <v>-1519157.7338</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J143" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5199,14 +5155,12 @@
         <v>-1543283.7963</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>15.3</v>
       </c>
-      <c r="J144" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5240,14 +5194,12 @@
         <v>-1522593.7963</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>15.2</v>
       </c>
-      <c r="J145" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,14 +5233,12 @@
         <v>-1516593.7963</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>15.3</v>
       </c>
-      <c r="J146" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,14 +5272,12 @@
         <v>-1516593.7963</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>15.4</v>
       </c>
-      <c r="J147" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5363,14 +5311,12 @@
         <v>-1516593.7963</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>15.4</v>
       </c>
-      <c r="J148" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,14 +5350,12 @@
         <v>-1464889.7963</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>15.4</v>
       </c>
-      <c r="J149" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,14 +5389,12 @@
         <v>-1713485.7991</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>15.5</v>
       </c>
-      <c r="J150" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,14 +5428,12 @@
         <v>-1713485.7991</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>15.3</v>
       </c>
-      <c r="J151" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,14 +5467,12 @@
         <v>-1713485.7991</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>15.3</v>
       </c>
-      <c r="J152" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,12 +5506,12 @@
         <v>-1713485.7991</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>15.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5607,14 +5545,12 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>15.3</v>
       </c>
-      <c r="J154" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,14 +5584,10 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J155" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,14 +5621,10 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J156" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5730,14 +5658,10 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J157" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5774,9 +5698,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,14 +5732,10 @@
         <v>-1475217.7991</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J159" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,14 +5769,10 @@
         <v>-1482331.262</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J160" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,14 +5806,12 @@
         <v>-1482331.262</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>15.4</v>
       </c>
-      <c r="J161" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,14 +5845,12 @@
         <v>-1482331.262</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>15.4</v>
       </c>
-      <c r="J162" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5974,12 +5884,12 @@
         <v>-1482331.262</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>15.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6013,12 +5923,12 @@
         <v>-1482331.262</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>15.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6052,14 +5962,12 @@
         <v>-1482331.262</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>15.4</v>
       </c>
-      <c r="J165" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,12 +6001,12 @@
         <v>-1493311.6541</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>15.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6135,9 +6043,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,14 +6077,12 @@
         <v>-1471625.6845</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>15.2</v>
       </c>
-      <c r="J168" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6215,9 +6119,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6254,9 +6156,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6290,14 +6190,12 @@
         <v>-1459309.0214</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>15.3</v>
       </c>
-      <c r="J171" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,14 +6229,12 @@
         <v>-1455220.2426</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>15.1</v>
       </c>
-      <c r="J172" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6372,14 +6268,12 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>15.2</v>
       </c>
-      <c r="J173" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,14 +6307,12 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>15.3</v>
       </c>
-      <c r="J174" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,14 +6346,12 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>15.3</v>
       </c>
-      <c r="J175" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,14 +6385,12 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>15.3</v>
       </c>
-      <c r="J176" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6536,14 +6424,12 @@
         <v>-1466564.6669</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>15.3</v>
       </c>
-      <c r="J177" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,14 +6463,12 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>15.2</v>
       </c>
-      <c r="J178" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6618,14 +6502,12 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>15.4</v>
       </c>
-      <c r="J179" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,14 +6541,12 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>15.4</v>
       </c>
-      <c r="J180" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,14 +6580,12 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>15.4</v>
       </c>
-      <c r="J181" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6741,14 +6619,12 @@
         <v>-1543469.6669</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>15.4</v>
       </c>
-      <c r="J182" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,14 +6658,12 @@
         <v>-1395594.9327</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>15.2</v>
       </c>
-      <c r="J183" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6823,14 +6697,10 @@
         <v>-1395919.1878</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J184" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6864,14 +6734,10 @@
         <v>-1395907.1878</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J185" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6905,14 +6771,12 @@
         <v>-1278507.1878</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>15.5</v>
       </c>
-      <c r="J186" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,14 +6810,10 @@
         <v>-1278507.1878</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>16</v>
-      </c>
-      <c r="J187" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6987,14 +6847,10 @@
         <v>-783297.0948</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>16</v>
-      </c>
-      <c r="J188" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7031,9 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7070,9 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7109,9 +6961,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7148,9 +6998,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7187,9 +7035,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7226,9 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7265,9 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7304,9 +7146,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7343,9 +7183,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7382,9 +7220,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7421,9 +7257,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7460,9 +7294,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7499,9 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7538,9 +7368,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,9 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7616,9 +7442,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7655,9 +7479,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7694,9 +7516,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7733,9 +7553,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7772,9 +7590,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,12 +7624,10 @@
         <v>-237971.033</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7847,12 +7661,10 @@
         <v>-231041.033</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7886,12 +7698,10 @@
         <v>-234623.039</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7928,9 +7738,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,12 +7772,10 @@
         <v>-205613.039</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8006,9 +7812,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8020,6 +7824,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>66593.88869999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>65968.22409999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>52918.22409999998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>9985.99789999998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-18299.89840000002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-14459.89840000002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-14459.89840000002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-31453.89840000002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>10346.10159999998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>10346.10159999998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-22051.80230000002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-22041.80230000002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-34359.86070000002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-34059.86070000002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-34049.86070000002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-34693.49020000002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-34683.49020000002</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-14353.67890000002</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-14833.96570000002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-14823.96570000002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-14823.96570000002</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-17823.96570000002</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-72123.96570000003</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-72123.96570000003</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-353718.7307000001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-314618.7307000001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-723505.7307000001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-723505.7307000001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-723495.7307000001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-733495.7307000001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -5005,14 +5005,10 @@
         <v>-1488653.7338</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J140" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5042,19 +5038,11 @@
         <v>-1519157.7338</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J141" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5086,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5155,976 +5137,846 @@
         <v>-1543283.7963</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20690</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1522593.7963</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1516593.7963</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1516593.7963</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7010</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1516593.7963</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>51704</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1464889.7963</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>248596.0028</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1713485.7991</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>210400</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1713485.7991</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1713485.7991</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10100</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1713485.7991</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>238268</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1475217.7991</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1475217.7991</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2836.7741</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1475217.7991</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1475217.7991</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>196.2257</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1475217.7991</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5649.7774</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1475217.7991</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7113.4629</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1482331.262</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3896.103896103896</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1482331.262</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3672.769</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1482331.262</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>76987</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1482331.262</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>95586</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1482331.262</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1482331.262</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10980.3921</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1493311.6541</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5952.8134</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1499264.4675</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>27638.783</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1471625.6845</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>64941.8427</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1406683.8418</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C145" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D145" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F145" t="n">
-        <v>20690</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1522593.7963</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C146" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F146" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1516593.7963</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C147" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D147" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E147" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1516593.7963</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F148" t="n">
-        <v>7010</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1516593.7963</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F149" t="n">
-        <v>51704</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1464889.7963</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D150" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F150" t="n">
-        <v>248596.0028</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1713485.7991</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D151" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E151" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F151" t="n">
-        <v>210400</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1713485.7991</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C152" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D152" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E152" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3600</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1713485.7991</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C153" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E153" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>10100</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1713485.7991</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C154" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D154" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F154" t="n">
-        <v>238268</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>100</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C156" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2836.7741</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>100</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>196.2257</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5649.7774</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D160" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E160" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>7113.4629</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3896.103896103896</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3672.769</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C163" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D163" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F163" t="n">
-        <v>76987</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C164" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E164" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F164" t="n">
-        <v>95586</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C165" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D165" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E165" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F165" t="n">
-        <v>64.93000000000001</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>10980.3921</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1493311.6541</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C167" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D167" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E167" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F167" t="n">
-        <v>5952.8134</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1499264.4675</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E168" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>27638.783</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1471625.6845</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C169" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D169" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F169" t="n">
-        <v>64941.8427</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1406683.8418</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6156,7 +6008,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6195,7 +6049,9 @@
       <c r="I171" t="n">
         <v>15.3</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,7 +6090,9 @@
       <c r="I172" t="n">
         <v>15.1</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6273,7 +6131,9 @@
       <c r="I173" t="n">
         <v>15.2</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6312,7 +6172,9 @@
       <c r="I174" t="n">
         <v>15.3</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,7 +6213,9 @@
       <c r="I175" t="n">
         <v>15.3</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,12 +6249,12 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,12 +6288,12 @@
         <v>-1466564.6669</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6468,7 +6332,9 @@
       <c r="I178" t="n">
         <v>15.2</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,7 +6373,9 @@
       <c r="I179" t="n">
         <v>15.4</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,12 +6409,12 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6580,12 +6448,12 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6619,12 +6487,12 @@
         <v>-1543469.6669</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,12 +6526,12 @@
         <v>-1395594.9327</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
         <v>15.2</v>
       </c>
-      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,7 +6568,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,7 +6607,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6771,12 +6643,12 @@
         <v>-1278507.1878</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6813,7 +6685,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6850,7 +6724,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6884,19 +6760,23 @@
         <v>-568997.0948</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>1.080526315789474</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1.072847682119205</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6921,15 +6801,11 @@
         <v>-571786.3935</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6958,15 +6834,11 @@
         <v>-647187.1958</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6995,15 +6867,11 @@
         <v>-647187.1958</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7036,11 +6904,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7073,11 +6937,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7106,15 +6966,11 @@
         <v>-623757.1958</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7147,11 +7003,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7184,11 +7036,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7221,11 +7069,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7258,11 +7102,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7295,11 +7135,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7332,11 +7168,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7369,11 +7201,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7406,11 +7234,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7443,11 +7267,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7300,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7517,11 +7333,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7554,11 +7366,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7591,11 +7399,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +7432,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7665,11 +7465,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +7498,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7735,15 +7527,11 @@
         <v>-205613.039</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +7564,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7813,17 +7597,13 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -451,7 +451,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>63127.88869999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>66593.88869999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>65968.22409999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>52918.22409999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>9985.99789999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -5929,14 +5929,10 @@
         <v>-1471625.6845</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J168" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
@@ -5969,377 +5965,353 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>15.2</v>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="C170" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>25006.0044</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1431689.8462</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>27619.1752</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1459309.0214</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4088.7788</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1455220.2426</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2570</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1452650.2426</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2570</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1452650.2426</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10280</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1452650.2426</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7710</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1452650.2426</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J176" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13914.4243</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1466564.6669</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7991</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1458573.6669</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C170" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D170" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E170" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>25006.0044</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1431689.8462</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C171" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E171" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>27619.1752</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1459309.0214</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J171" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D172" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F172" t="n">
-        <v>4088.7788</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1455220.2426</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E173" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2570</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1452650.2426</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J173" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2570</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1452650.2426</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J174" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10280</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1452650.2426</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J175" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D176" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F176" t="n">
-        <v>7710</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1452650.2426</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C177" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D177" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E177" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F177" t="n">
-        <v>13914.4243</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1466564.6669</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C178" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D178" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F178" t="n">
-        <v>7991</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1458573.6669</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6374,7 +6346,7 @@
         <v>15.4</v>
       </c>
       <c r="J179" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6409,11 +6381,13 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J180" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6448,11 +6422,13 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J181" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6487,11 +6463,13 @@
         <v>-1543469.6669</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J182" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6526,11 +6504,13 @@
         <v>-1395594.9327</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J183" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6569,7 +6549,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6608,7 +6588,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6647,7 +6627,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6686,7 +6666,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6725,7 +6705,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6760,650 +6740,764 @@
         <v>-568997.0948</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C190" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2789.2987</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-571786.3935</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>75400.8023</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-647187.1958</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>21650</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-647187.1958</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-645757.1958</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>18501.3496</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-645757.1958</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D195" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-623757.1958</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F196" t="n">
+        <v>18480</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-605277.1958</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>296339.0165</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-308938.1793</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D198" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>66861.5474</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-242076.6319</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>66550.8916</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-308627.5235</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C200" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D200" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E200" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F200" t="n">
+        <v>41176.4646</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-267451.0589</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C201" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E201" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>76606.58530000001</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-344057.6442</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3086.4197</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-347144.0639</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>486</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-347630.0639</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-347630.0639</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>109859.0309</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-237771.033</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>14575.4938</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-237771.033</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>7129.037</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-237771.033</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2151.203</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-237771.033</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1.080526315789474</v>
-      </c>
-      <c r="M189" t="n">
+      <c r="L208" t="n">
+        <v>1.053823529411765</v>
+      </c>
+      <c r="M208" t="n">
         <v>1.072847682119205</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C190" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E190" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2789.2987</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-571786.3935</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C191" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D191" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E191" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F191" t="n">
-        <v>75400.8023</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-647187.1958</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C192" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D192" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E192" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F192" t="n">
-        <v>21650</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-647187.1958</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D193" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1430</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-645757.1958</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C194" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D194" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E194" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>18501.3496</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-645757.1958</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C195" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D195" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E195" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F195" t="n">
-        <v>22000</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-623757.1958</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C196" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D196" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E196" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>18480</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-605277.1958</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C197" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D197" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E197" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>296339.0165</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-308938.1793</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D198" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E198" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F198" t="n">
-        <v>66861.5474</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-242076.6319</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C199" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D199" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E199" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F199" t="n">
-        <v>66550.8916</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-308627.5235</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C200" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D200" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E200" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F200" t="n">
-        <v>41176.4646</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-267451.0589</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C201" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D201" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E201" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F201" t="n">
-        <v>76606.58530000001</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-344057.6442</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C202" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D202" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E202" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F202" t="n">
-        <v>3086.4197</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-347144.0639</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C203" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E203" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F203" t="n">
-        <v>486</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-347630.0639</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C204" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E204" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F204" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-347630.0639</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C205" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D205" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F205" t="n">
-        <v>109859.0309</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C206" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D206" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E206" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F206" t="n">
-        <v>14575.4938</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D207" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E207" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F207" t="n">
-        <v>7129.037</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C208" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D208" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E208" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2151.203</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7428,7 +7522,7 @@
         <v>-237971.033</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7461,7 +7555,7 @@
         <v>-231041.033</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7494,7 +7588,7 @@
         <v>-234623.039</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7560,7 +7654,7 @@
         <v>-205613.039</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7593,7 +7687,7 @@
         <v>-205613.039</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>

--- a/BackTest/2019-10-11 BackTest MITH.xlsx
+++ b/BackTest/2019-10-11 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3360</v>
       </c>
       <c r="G2" t="n">
-        <v>64987.88869999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3360</v>
       </c>
       <c r="G3" t="n">
-        <v>64987.88869999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2000</v>
       </c>
       <c r="G4" t="n">
-        <v>64987.88869999998</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>65987.88869999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2000</v>
       </c>
       <c r="G6" t="n">
-        <v>65987.88869999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>15749.0123</v>
       </c>
       <c r="G7" t="n">
-        <v>65987.88869999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2860</v>
       </c>
       <c r="G8" t="n">
-        <v>63127.88869999998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3466</v>
       </c>
       <c r="G9" t="n">
-        <v>66593.88869999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>13932</v>
       </c>
       <c r="G10" t="n">
-        <v>52661.88869999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>6946.2053</v>
       </c>
       <c r="G11" t="n">
-        <v>52661.88869999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>43117.8509</v>
       </c>
       <c r="G12" t="n">
-        <v>52661.88869999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>18339</v>
       </c>
       <c r="G13" t="n">
-        <v>52661.88869999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>13306.3354</v>
       </c>
       <c r="G14" t="n">
-        <v>65968.22409999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>13060</v>
       </c>
       <c r="G15" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>13060</v>
       </c>
       <c r="G16" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>6530</v>
       </c>
       <c r="G17" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>6530</v>
       </c>
       <c r="G18" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>13060</v>
       </c>
       <c r="G19" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>13060</v>
       </c>
       <c r="G20" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>6530</v>
       </c>
       <c r="G21" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>15709.6397</v>
       </c>
       <c r="G22" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>44503.0665</v>
       </c>
       <c r="G23" t="n">
-        <v>52908.22409999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>52918.22409999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>6530</v>
       </c>
       <c r="G25" t="n">
-        <v>46388.22409999998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>6530</v>
       </c>
       <c r="G26" t="n">
-        <v>46388.22409999998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>13060</v>
       </c>
       <c r="G27" t="n">
-        <v>46388.22409999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>6530</v>
       </c>
       <c r="G28" t="n">
-        <v>46388.22409999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>6530</v>
       </c>
       <c r="G29" t="n">
-        <v>46388.22409999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>197487.6258</v>
       </c>
       <c r="G30" t="n">
-        <v>46388.22409999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>36402.2262</v>
       </c>
       <c r="G31" t="n">
-        <v>9985.99789999998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>25640.1927</v>
       </c>
       <c r="G32" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>58185.7974</v>
       </c>
       <c r="G33" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>3734.6329</v>
       </c>
       <c r="G34" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3662.6875</v>
       </c>
       <c r="G35" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>314.4654</v>
       </c>
       <c r="G36" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>43020</v>
       </c>
       <c r="G37" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>7000</v>
       </c>
       <c r="G38" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3000</v>
       </c>
       <c r="G39" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2000</v>
       </c>
       <c r="G41" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>12800</v>
       </c>
       <c r="G42" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>500</v>
       </c>
       <c r="G44" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>19900</v>
       </c>
       <c r="G45" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>50000</v>
       </c>
       <c r="G46" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>50000</v>
       </c>
       <c r="G47" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>29460.9793</v>
       </c>
       <c r="G48" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>27807.889</v>
       </c>
       <c r="G49" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2000</v>
       </c>
       <c r="G52" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>21000</v>
       </c>
       <c r="G53" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4010.4959</v>
       </c>
       <c r="G54" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>14760.133</v>
       </c>
       <c r="G56" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>15176.6779</v>
       </c>
       <c r="G57" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>14500</v>
       </c>
       <c r="G58" t="n">
-        <v>35626.19059999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>53926.089</v>
       </c>
       <c r="G59" t="n">
-        <v>-18299.89840000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>3840</v>
       </c>
       <c r="G60" t="n">
-        <v>-14459.89840000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3840</v>
       </c>
       <c r="G61" t="n">
-        <v>-14459.89840000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>16994</v>
       </c>
       <c r="G62" t="n">
-        <v>-31453.89840000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>41800</v>
       </c>
       <c r="G63" t="n">
-        <v>10346.10159999998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3840</v>
       </c>
       <c r="G64" t="n">
-        <v>10346.10159999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2993.5849</v>
       </c>
       <c r="G65" t="n">
-        <v>10346.10159999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>32397.9039</v>
       </c>
       <c r="G66" t="n">
-        <v>-22051.80230000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>-22041.80230000002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>12318.0584</v>
       </c>
       <c r="G68" t="n">
-        <v>-34359.86070000002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>300</v>
       </c>
       <c r="G69" t="n">
-        <v>-34059.86070000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>543</v>
       </c>
       <c r="G70" t="n">
-        <v>-34059.86070000002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>9157</v>
       </c>
       <c r="G71" t="n">
-        <v>-34059.86070000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2683.0271</v>
       </c>
       <c r="G72" t="n">
-        <v>-34059.86070000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-34049.86070000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>643.6295</v>
       </c>
       <c r="G74" t="n">
-        <v>-34693.49020000002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>-34683.49020000002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>32855.5592</v>
       </c>
       <c r="G76" t="n">
-        <v>-34683.49020000002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>160</v>
       </c>
       <c r="G77" t="n">
-        <v>-34683.49020000002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>20329.8113</v>
       </c>
       <c r="G78" t="n">
-        <v>-14353.67890000002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>480.2868</v>
       </c>
       <c r="G79" t="n">
-        <v>-14833.96570000002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-14823.96570000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>11555</v>
       </c>
       <c r="G81" t="n">
-        <v>-14823.96570000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>3000</v>
       </c>
       <c r="G82" t="n">
-        <v>-17823.96570000002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>29799</v>
       </c>
       <c r="G83" t="n">
-        <v>-17823.96570000002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>67500</v>
       </c>
       <c r="G84" t="n">
-        <v>-17823.96570000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>54300</v>
       </c>
       <c r="G85" t="n">
-        <v>-72123.96570000003</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>35400</v>
       </c>
       <c r="G86" t="n">
-        <v>-72123.96570000003</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>281594.765</v>
       </c>
       <c r="G87" t="n">
-        <v>-353718.7307000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>39100</v>
       </c>
       <c r="G88" t="n">
-        <v>-314618.7307000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>408887</v>
       </c>
       <c r="G89" t="n">
-        <v>-723505.7307000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>10000</v>
       </c>
       <c r="G90" t="n">
-        <v>-723505.7307000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-723495.7307000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>-733495.7307000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>200000</v>
       </c>
       <c r="G93" t="n">
-        <v>-933495.7307000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>140726.0343</v>
       </c>
       <c r="G94" t="n">
-        <v>-1074221.765</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-1074211.765</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>3740.3923</v>
       </c>
       <c r="G96" t="n">
-        <v>-1077952.1573</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>28907.7419</v>
       </c>
       <c r="G97" t="n">
-        <v>-1077952.1573</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>32100</v>
       </c>
       <c r="G98" t="n">
-        <v>-1110052.1573</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>9900</v>
       </c>
       <c r="G99" t="n">
-        <v>-1100152.1573</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>4061</v>
       </c>
       <c r="G100" t="n">
-        <v>-1104213.1573</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>2220</v>
       </c>
       <c r="G101" t="n">
-        <v>-1101993.1573</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>4440</v>
       </c>
       <c r="G102" t="n">
-        <v>-1101993.1573</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>3610</v>
       </c>
       <c r="G103" t="n">
-        <v>-1101993.1573</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>14150</v>
       </c>
       <c r="G104" t="n">
-        <v>-1101993.1573</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>16397.0129</v>
       </c>
       <c r="G105" t="n">
-        <v>-1085596.1444</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>3330</v>
       </c>
       <c r="G106" t="n">
-        <v>-1085596.1444</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>71656.3694</v>
       </c>
       <c r="G107" t="n">
-        <v>-1013939.775</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>-1014039.775</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>64463.9803</v>
       </c>
       <c r="G109" t="n">
-        <v>-1014039.775</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>40332.2837</v>
       </c>
       <c r="G110" t="n">
-        <v>-1054372.0587</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>9517</v>
       </c>
       <c r="G111" t="n">
-        <v>-1044855.0587</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>3096.217948717949</v>
       </c>
       <c r="G112" t="n">
-        <v>-1044855.0587</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>4800</v>
       </c>
       <c r="G113" t="n">
-        <v>-1044855.0587</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>4330</v>
       </c>
       <c r="G114" t="n">
-        <v>-1049185.0587</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>9108.9228</v>
       </c>
       <c r="G115" t="n">
-        <v>-1049185.0587</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>908.782</v>
       </c>
       <c r="G116" t="n">
-        <v>-1048276.2767</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>368444.7464</v>
       </c>
       <c r="G117" t="n">
-        <v>-1416721.0231</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>3000</v>
       </c>
       <c r="G118" t="n">
-        <v>-1413721.0231</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>6003</v>
       </c>
       <c r="G119" t="n">
-        <v>-1413721.0231</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>5470</v>
       </c>
       <c r="G120" t="n">
-        <v>-1419191.0231</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>9449</v>
       </c>
       <c r="G121" t="n">
-        <v>-1409742.0231</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>300</v>
       </c>
       <c r="G122" t="n">
-        <v>-1410042.0231</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1420.8441</v>
       </c>
       <c r="G123" t="n">
-        <v>-1410042.0231</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>6944.6785</v>
       </c>
       <c r="G124" t="n">
-        <v>-1410042.0231</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>4180</v>
       </c>
       <c r="G125" t="n">
-        <v>-1410042.0231</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>25248.1116</v>
       </c>
       <c r="G126" t="n">
-        <v>-1435290.1347</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>11906.6946</v>
       </c>
       <c r="G127" t="n">
-        <v>-1423383.4401</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>11130</v>
       </c>
       <c r="G128" t="n">
-        <v>-1423383.4401</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>98708.18180000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-1423383.4401</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>20000</v>
       </c>
       <c r="G130" t="n">
-        <v>-1423383.4401</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>10000</v>
       </c>
       <c r="G131" t="n">
-        <v>-1433383.4401</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>10000</v>
       </c>
       <c r="G132" t="n">
-        <v>-1433383.4401</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,19 @@
         <v>4574.6266</v>
       </c>
       <c r="G133" t="n">
-        <v>-1433383.4401</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4407,21 @@
         <v>20199.0551</v>
       </c>
       <c r="G134" t="n">
-        <v>-1433383.4401</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4443,21 @@
         <v>46896.7168</v>
       </c>
       <c r="G135" t="n">
-        <v>-1480280.1569</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4479,23 @@
         <v>33798.2198</v>
       </c>
       <c r="G136" t="n">
-        <v>-1480280.1569</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4517,23 @@
         <v>11000</v>
       </c>
       <c r="G137" t="n">
-        <v>-1469280.1569</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4555,23 @@
         <v>70</v>
       </c>
       <c r="G138" t="n">
-        <v>-1469280.1569</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="I138" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4593,21 @@
         <v>25373.5769</v>
       </c>
       <c r="G139" t="n">
-        <v>-1494653.7338</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4629,23 @@
         <v>6000</v>
       </c>
       <c r="G140" t="n">
-        <v>-1488653.7338</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4667,23 @@
         <v>30504</v>
       </c>
       <c r="G141" t="n">
-        <v>-1519157.7338</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="I141" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4705,23 @@
         <v>5760</v>
       </c>
       <c r="G142" t="n">
-        <v>-1519157.7338</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4743,23 @@
         <v>13300</v>
       </c>
       <c r="G143" t="n">
-        <v>-1519157.7338</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="I143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4781,23 @@
         <v>24126.0625</v>
       </c>
       <c r="G144" t="n">
-        <v>-1543283.7963</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="I144" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4819,23 @@
         <v>20690</v>
       </c>
       <c r="G145" t="n">
-        <v>-1522593.7963</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4857,21 @@
         <v>6000</v>
       </c>
       <c r="G146" t="n">
-        <v>-1516593.7963</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4893,21 @@
         <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>-1516593.7963</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4929,21 @@
         <v>7010</v>
       </c>
       <c r="G148" t="n">
-        <v>-1516593.7963</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4965,21 @@
         <v>51704</v>
       </c>
       <c r="G149" t="n">
-        <v>-1464889.7963</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5001,21 @@
         <v>248596.0028</v>
       </c>
       <c r="G150" t="n">
-        <v>-1713485.7991</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5037,21 @@
         <v>210400</v>
       </c>
       <c r="G151" t="n">
-        <v>-1713485.7991</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5073,23 @@
         <v>3600</v>
       </c>
       <c r="G152" t="n">
-        <v>-1713485.7991</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="I152" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5111,21 @@
         <v>10100</v>
       </c>
       <c r="G153" t="n">
-        <v>-1713485.7991</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5147,21 @@
         <v>238268</v>
       </c>
       <c r="G154" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5183,21 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5219,21 @@
         <v>2836.7741</v>
       </c>
       <c r="G156" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5255,21 @@
         <v>100</v>
       </c>
       <c r="G157" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5291,21 @@
         <v>196.2257</v>
       </c>
       <c r="G158" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5327,21 @@
         <v>5649.7774</v>
       </c>
       <c r="G159" t="n">
-        <v>-1475217.7991</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5363,21 @@
         <v>7113.4629</v>
       </c>
       <c r="G160" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5399,21 @@
         <v>3896.103896103896</v>
       </c>
       <c r="G161" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5435,21 @@
         <v>3672.769</v>
       </c>
       <c r="G162" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5471,21 @@
         <v>76987</v>
       </c>
       <c r="G163" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5507,21 @@
         <v>95586</v>
       </c>
       <c r="G164" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5543,21 @@
         <v>64.93000000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>-1482331.262</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5579,21 @@
         <v>10980.3921</v>
       </c>
       <c r="G166" t="n">
-        <v>-1493311.6541</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5615,21 @@
         <v>5952.8134</v>
       </c>
       <c r="G167" t="n">
-        <v>-1499264.4675</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5651,21 @@
         <v>27638.783</v>
       </c>
       <c r="G168" t="n">
-        <v>-1471625.6845</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5687,21 @@
         <v>64941.8427</v>
       </c>
       <c r="G169" t="n">
-        <v>-1406683.8418</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5723,23 @@
         <v>25006.0044</v>
       </c>
       <c r="G170" t="n">
-        <v>-1431689.8462</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5761,23 @@
         <v>27619.1752</v>
       </c>
       <c r="G171" t="n">
-        <v>-1459309.0214</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,22 +5799,23 @@
         <v>4088.7788</v>
       </c>
       <c r="G172" t="n">
-        <v>-1455220.2426</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="I172" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6095,26 +5837,21 @@
         <v>2570</v>
       </c>
       <c r="G173" t="n">
-        <v>-1452650.2426</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
         <v>15.2</v>
       </c>
-      <c r="J173" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6136,26 +5873,21 @@
         <v>2570</v>
       </c>
       <c r="G174" t="n">
-        <v>-1452650.2426</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J174" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6177,22 +5909,21 @@
         <v>10280</v>
       </c>
       <c r="G175" t="n">
-        <v>-1452650.2426</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6214,26 +5945,23 @@
         <v>7710</v>
       </c>
       <c r="G176" t="n">
-        <v>-1452650.2426</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="I176" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J176" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6255,26 +5983,23 @@
         <v>13914.4243</v>
       </c>
       <c r="G177" t="n">
-        <v>-1466564.6669</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="I177" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J177" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6296,26 +6021,23 @@
         <v>7991</v>
       </c>
       <c r="G178" t="n">
-        <v>-1458573.6669</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="I178" t="n">
         <v>15.2</v>
       </c>
-      <c r="J178" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6337,26 +6059,23 @@
         <v>49900</v>
       </c>
       <c r="G179" t="n">
-        <v>-1458573.6669</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>15.4</v>
       </c>
       <c r="I179" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J179" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>15.2</v>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6378,26 +6097,23 @@
         <v>70290</v>
       </c>
       <c r="G180" t="n">
-        <v>-1458573.6669</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>15.4</v>
       </c>
       <c r="I180" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J180" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>15.2</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6419,26 +6135,21 @@
         <v>11245.6235</v>
       </c>
       <c r="G181" t="n">
-        <v>-1458573.6669</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J181" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>15.2</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6460,26 +6171,21 @@
         <v>84896</v>
       </c>
       <c r="G182" t="n">
-        <v>-1543469.6669</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J182" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>15.2</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6501,26 +6207,21 @@
         <v>147874.7342</v>
       </c>
       <c r="G183" t="n">
-        <v>-1395594.9327</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
         <v>15.2</v>
       </c>
-      <c r="J183" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6542,24 +6243,21 @@
         <v>324.2551</v>
       </c>
       <c r="G184" t="n">
-        <v>-1395919.1878</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6581,24 +6279,21 @@
         <v>12</v>
       </c>
       <c r="G185" t="n">
-        <v>-1395907.1878</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6620,24 +6315,21 @@
         <v>117400</v>
       </c>
       <c r="G186" t="n">
-        <v>-1278507.1878</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6659,24 +6351,21 @@
         <v>35874.8625</v>
       </c>
       <c r="G187" t="n">
-        <v>-1278507.1878</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K187" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6698,24 +6387,21 @@
         <v>495210.093</v>
       </c>
       <c r="G188" t="n">
-        <v>-783297.0948</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K188" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6737,24 +6423,21 @@
         <v>214300</v>
       </c>
       <c r="G189" t="n">
-        <v>-568997.0948</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K189" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6776,24 +6459,21 @@
         <v>2789.2987</v>
       </c>
       <c r="G190" t="n">
-        <v>-571786.3935</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6815,24 +6495,21 @@
         <v>75400.8023</v>
       </c>
       <c r="G191" t="n">
-        <v>-647187.1958</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6854,24 +6531,21 @@
         <v>21650</v>
       </c>
       <c r="G192" t="n">
-        <v>-647187.1958</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6893,24 +6567,21 @@
         <v>1430</v>
       </c>
       <c r="G193" t="n">
-        <v>-645757.1958</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K193" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6932,24 +6603,21 @@
         <v>18501.3496</v>
       </c>
       <c r="G194" t="n">
-        <v>-645757.1958</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6971,24 +6639,21 @@
         <v>22000</v>
       </c>
       <c r="G195" t="n">
-        <v>-623757.1958</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7010,24 +6675,21 @@
         <v>18480</v>
       </c>
       <c r="G196" t="n">
-        <v>-605277.1958</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K196" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7049,24 +6711,21 @@
         <v>296339.0165</v>
       </c>
       <c r="G197" t="n">
-        <v>-308938.1793</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K197" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7088,24 +6747,21 @@
         <v>66861.5474</v>
       </c>
       <c r="G198" t="n">
-        <v>-242076.6319</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7127,24 +6783,21 @@
         <v>66550.8916</v>
       </c>
       <c r="G199" t="n">
-        <v>-308627.5235</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7166,24 +6819,21 @@
         <v>41176.4646</v>
       </c>
       <c r="G200" t="n">
-        <v>-267451.0589</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7205,24 +6855,23 @@
         <v>76606.58530000001</v>
       </c>
       <c r="G201" t="n">
-        <v>-344057.6442</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1.067368421052632</v>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>1.065789473684211</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7244,24 +6893,15 @@
         <v>3086.4197</v>
       </c>
       <c r="G202" t="n">
-        <v>-347144.0639</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7283,24 +6923,15 @@
         <v>486</v>
       </c>
       <c r="G203" t="n">
-        <v>-347630.0639</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7322,24 +6953,15 @@
         <v>10000</v>
       </c>
       <c r="G204" t="n">
-        <v>-347630.0639</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7361,24 +6983,15 @@
         <v>109859.0309</v>
       </c>
       <c r="G205" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7400,24 +7013,15 @@
         <v>14575.4938</v>
       </c>
       <c r="G206" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7439,24 +7043,15 @@
         <v>7129.037</v>
       </c>
       <c r="G207" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7478,26 +7073,15 @@
         <v>2151.203</v>
       </c>
       <c r="G208" t="n">
-        <v>-237771.033</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1.053823529411765</v>
-      </c>
-      <c r="M208" t="n">
-        <v>1.072847682119205</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7519,18 +7103,15 @@
         <v>200</v>
       </c>
       <c r="G209" t="n">
-        <v>-237971.033</v>
-      </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7552,18 +7133,15 @@
         <v>6930</v>
       </c>
       <c r="G210" t="n">
-        <v>-231041.033</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7585,18 +7163,15 @@
         <v>3582.006</v>
       </c>
       <c r="G211" t="n">
-        <v>-234623.039</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7618,18 +7193,15 @@
         <v>29010</v>
       </c>
       <c r="G212" t="n">
-        <v>-205613.039</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7651,18 +7223,15 @@
         <v>549.8148</v>
       </c>
       <c r="G213" t="n">
-        <v>-205613.039</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7684,18 +7253,15 @@
         <v>16117.2364</v>
       </c>
       <c r="G214" t="n">
-        <v>-205613.039</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
